--- a/game-projects/r-type/objects/enemies/01/shell/sinus.xlsx
+++ b/game-projects/r-type/objects/enemies/01/shell/sinus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yriou/Documents/GitHub/thomson-to8-game-engine/game-projects/r-type/objects/enemies/01/shell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2157FC-7BD5-3142-97E3-4417CC892BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5787D-3887-7043-8297-510F914AA3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8D9165BA-C0B4-4D28-8830-DD2EFAB4F0E8}"/>
   </bookViews>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FFD733-A934-4437-AC10-D701F019C6FF}">
   <dimension ref="A1:I259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="I1">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -497,3069 +497,3069 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"        fcb   $"&amp;E4</f>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B4" t="str">
         <f>"        fcb   $"&amp;F4</f>
-        <v xml:space="preserve">        fcb   $FF</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="C4">
         <f>I1</f>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <f>IF(C4&gt;255,C4-256,C4)</f>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E4" t="str">
         <f>RIGHT(DEC2HEX($C$2*SIN(RADIANS(D4*(360/256))),2),2)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="str">
         <f>RIGHT(DEC2HEX($E$2*COS(RADIANS(C4*(360/256))),2),2)</f>
-        <v>FF</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A68" si="0">"        fcb   $"&amp;E5</f>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B68" si="1">"        fcb   $"&amp;F5</f>
-        <v xml:space="preserve">        fcb   $FE</v>
+        <v xml:space="preserve">        fcb   $E9</v>
       </c>
       <c r="C5">
         <f>C4+1</f>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D68" si="2">IF(C5&gt;255,C5-256,C5)</f>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E68" si="3">RIGHT(DEC2HEX($C$2*SIN(RADIANS(D5*(360/256))),2),2)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F68" si="4">RIGHT(DEC2HEX($E$2*COS(RADIANS(C5*(360/256))),2),2)</f>
-        <v>FE</v>
+        <v>E9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $FC</v>
+        <v xml:space="preserve">        fcb   $E7</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C69" si="5">C5+1</f>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v>FC</v>
+        <v>E7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $FB</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="C7">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="4"/>
-        <v>FB</v>
+        <v>E6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>1F</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="4"/>
-        <v>F9</v>
+        <v>E5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $F8</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>1F</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="4"/>
-        <v>F8</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $F6</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>1E</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="4"/>
-        <v>F6</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $F5</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>1E</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="4"/>
-        <v>F5</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>1D</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="4"/>
-        <v>F4</v>
+        <v>E0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $F2</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>1D</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="4"/>
-        <v>F2</v>
+        <v>DF</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $F1</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>1C</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="4"/>
-        <v>F1</v>
+        <v>DD</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $EF</v>
+        <v xml:space="preserve">        fcb   $DC</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>1C</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="4"/>
-        <v>EF</v>
+        <v>DC</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $EE</v>
+        <v xml:space="preserve">        fcb   $DB</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>1B</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="4"/>
-        <v>EE</v>
+        <v>DB</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $ED</v>
+        <v xml:space="preserve">        fcb   $DA</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>1B</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="4"/>
-        <v>ED</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $EB</v>
+        <v xml:space="preserve">        fcb   $D9</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>1A</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="4"/>
-        <v>EB</v>
+        <v>D9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $D8</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>1A</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="4"/>
-        <v>EA</v>
+        <v>D8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $19</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E9</v>
+        <v xml:space="preserve">        fcb   $D7</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="4"/>
-        <v>E9</v>
+        <v>D7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $18</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E7</v>
+        <v xml:space="preserve">        fcb   $D6</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="4"/>
-        <v>E7</v>
+        <v>D6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $18</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $D5</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="4"/>
-        <v>E6</v>
+        <v>D5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $17</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $D4</v>
       </c>
       <c r="C23">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="3"/>
-        <v>1F</v>
+        <v>17</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="4"/>
-        <v>E5</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $D3</v>
       </c>
       <c r="C24">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="3"/>
-        <v>1F</v>
+        <v>16</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="4"/>
-        <v>E3</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $D2</v>
       </c>
       <c r="C25">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="3"/>
-        <v>1E</v>
+        <v>16</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="4"/>
-        <v>E2</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $15</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $D1</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>1E</v>
+        <v>15</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="4"/>
-        <v>E1</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $D0</v>
       </c>
       <c r="C27">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
-        <v>1D</v>
+        <v>14</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="4"/>
-        <v>E0</v>
+        <v>D0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $CF</v>
       </c>
       <c r="C28">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="3"/>
-        <v>1D</v>
+        <v>14</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="4"/>
-        <v>DF</v>
+        <v>CF</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1C</v>
+        <v xml:space="preserve">        fcb   $13</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $CF</v>
       </c>
       <c r="C29">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="3"/>
-        <v>1C</v>
+        <v>13</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="4"/>
-        <v>DD</v>
+        <v>CF</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1C</v>
+        <v xml:space="preserve">        fcb   $12</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DC</v>
+        <v xml:space="preserve">        fcb   $CE</v>
       </c>
       <c r="C30">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="3"/>
-        <v>1C</v>
+        <v>12</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="4"/>
-        <v>DC</v>
+        <v>CE</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $11</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DB</v>
+        <v xml:space="preserve">        fcb   $CD</v>
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="3"/>
-        <v>1B</v>
+        <v>11</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="4"/>
-        <v>DB</v>
+        <v>CD</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DA</v>
+        <v xml:space="preserve">        fcb   $CC</v>
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="3"/>
-        <v>1B</v>
+        <v>10</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="4"/>
-        <v>DA</v>
+        <v>CC</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D9</v>
+        <v xml:space="preserve">        fcb   $CC</v>
       </c>
       <c r="C33">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="3"/>
-        <v>1A</v>
+        <v>10</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="4"/>
-        <v>D9</v>
+        <v>CC</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $0F</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D8</v>
+        <v xml:space="preserve">        fcb   $CB</v>
       </c>
       <c r="C34">
         <f t="shared" si="5"/>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="3"/>
-        <v>1A</v>
+        <v>0F</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="4"/>
-        <v>D8</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $19</v>
+        <v xml:space="preserve">        fcb   $0E</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D7</v>
+        <v xml:space="preserve">        fcb   $CB</v>
       </c>
       <c r="C35">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>0E</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="4"/>
-        <v>D7</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $18</v>
+        <v xml:space="preserve">        fcb   $0D</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D6</v>
+        <v xml:space="preserve">        fcb   $CA</v>
       </c>
       <c r="C36">
         <f t="shared" si="5"/>
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>0D</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="4"/>
-        <v>D6</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $18</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D5</v>
+        <v xml:space="preserve">        fcb   $C9</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>0C</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="4"/>
-        <v>D5</v>
+        <v>C9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $17</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D4</v>
+        <v xml:space="preserve">        fcb   $C9</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>0C</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="4"/>
-        <v>D4</v>
+        <v>C9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $0B</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D3</v>
+        <v xml:space="preserve">        fcb   $C8</v>
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>0B</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="4"/>
-        <v>D3</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $0A</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D2</v>
+        <v xml:space="preserve">        fcb   $C8</v>
       </c>
       <c r="C40">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>0A</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="4"/>
-        <v>D2</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $15</v>
+        <v xml:space="preserve">        fcb   $09</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D1</v>
+        <v xml:space="preserve">        fcb   $C8</v>
       </c>
       <c r="C41">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>09</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="4"/>
-        <v>D1</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $14</v>
+        <v xml:space="preserve">        fcb   $08</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D0</v>
+        <v xml:space="preserve">        fcb   $C7</v>
       </c>
       <c r="C42">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>08</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="4"/>
-        <v>D0</v>
+        <v>C7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $14</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CF</v>
+        <v xml:space="preserve">        fcb   $C7</v>
       </c>
       <c r="C43">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>07</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="4"/>
-        <v>CF</v>
+        <v>C7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $13</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CF</v>
+        <v xml:space="preserve">        fcb   $C7</v>
       </c>
       <c r="C44">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>07</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="4"/>
-        <v>CF</v>
+        <v>C7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $12</v>
+        <v xml:space="preserve">        fcb   $06</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CE</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C45">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>06</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="4"/>
-        <v>CE</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $11</v>
+        <v xml:space="preserve">        fcb   $05</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CD</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C46">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>05</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="4"/>
-        <v>CD</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $10</v>
+        <v xml:space="preserve">        fcb   $04</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CC</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C47">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>04</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="4"/>
-        <v>CC</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $10</v>
+        <v xml:space="preserve">        fcb   $03</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CC</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C48">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>03</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="4"/>
-        <v>CC</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0F</v>
+        <v xml:space="preserve">        fcb   $02</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CB</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C49">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>02</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="4"/>
-        <v>CB</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0E</v>
+        <v xml:space="preserve">        fcb   $01</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CB</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C50">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="3"/>
-        <v>0E</v>
+        <v>01</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="4"/>
-        <v>CB</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0D</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CA</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C51">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="3"/>
-        <v>0D</v>
+        <v>00</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="4"/>
-        <v>CA</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C9</v>
+        <v xml:space="preserve">        fcb   $C5</v>
       </c>
       <c r="C52">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="3"/>
-        <v>0C</v>
+        <v>00</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="4"/>
-        <v>C9</v>
+        <v>C5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C9</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C53">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="3"/>
-        <v>0C</v>
+        <v>00</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="4"/>
-        <v>C9</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0B</v>
+        <v xml:space="preserve">        fcb   $FF</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C54">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="3"/>
-        <v>0B</v>
+        <v>FF</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0A</v>
+        <v xml:space="preserve">        fcb   $FE</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C55">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="3"/>
-        <v>0A</v>
+        <v>FE</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $09</v>
+        <v xml:space="preserve">        fcb   $FD</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C56">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="3"/>
-        <v>09</v>
+        <v>FD</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $08</v>
+        <v xml:space="preserve">        fcb   $FC</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C57">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="3"/>
-        <v>08</v>
+        <v>FC</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $FB</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C58">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="3"/>
-        <v>07</v>
+        <v>FB</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $FA</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C59">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="3"/>
-        <v>07</v>
+        <v>FA</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $06</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $C7</v>
       </c>
       <c r="C60">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="3"/>
-        <v>06</v>
+        <v>F9</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>C7</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $05</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $C7</v>
       </c>
       <c r="C61">
         <f t="shared" si="5"/>
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="3"/>
-        <v>05</v>
+        <v>F9</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>C7</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $04</v>
+        <v xml:space="preserve">        fcb   $F8</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $C7</v>
       </c>
       <c r="C62">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="3"/>
-        <v>04</v>
+        <v>F8</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>C7</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $03</v>
+        <v xml:space="preserve">        fcb   $F7</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $C8</v>
       </c>
       <c r="C63">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="3"/>
-        <v>03</v>
+        <v>F7</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $02</v>
+        <v xml:space="preserve">        fcb   $F6</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $C8</v>
       </c>
       <c r="C64">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="3"/>
-        <v>02</v>
+        <v>F6</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $01</v>
+        <v xml:space="preserve">        fcb   $F5</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $C8</v>
       </c>
       <c r="C65">
         <f t="shared" si="5"/>
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="3"/>
-        <v>01</v>
+        <v>F5</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $C9</v>
       </c>
       <c r="C66">
         <f t="shared" si="5"/>
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>F4</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>C9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C5</v>
+        <v xml:space="preserve">        fcb   $C9</v>
       </c>
       <c r="C67">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D67">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>F4</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="4"/>
-        <v>C5</v>
+        <v>C9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $F3</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $CA</v>
       </c>
       <c r="C68">
         <f t="shared" si="5"/>
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D68">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>F3</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A132" si="6">"        fcb   $"&amp;E69</f>
-        <v xml:space="preserve">        fcb   $FF</v>
+        <v xml:space="preserve">        fcb   $F2</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" ref="B69:B132" si="7">"        fcb   $"&amp;F69</f>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $CB</v>
       </c>
       <c r="C69">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D69">
         <f t="shared" ref="D69:D132" si="8">IF(C69&gt;255,C69-256,C69)</f>
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ref="E69:E132" si="9">RIGHT(DEC2HEX($C$2*SIN(RADIANS(D69*(360/256))),2),2)</f>
-        <v>FF</v>
+        <v>F2</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ref="F69:F132" si="10">RIGHT(DEC2HEX($E$2*COS(RADIANS(C69*(360/256))),2),2)</f>
-        <v>C6</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $FE</v>
+        <v xml:space="preserve">        fcb   $F1</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $CB</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:C133" si="11">C69+1</f>
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D70">
         <f t="shared" si="8"/>
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="9"/>
-        <v>FE</v>
+        <v>F1</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="10"/>
-        <v>C6</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $FD</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $CC</v>
       </c>
       <c r="C71">
         <f t="shared" si="11"/>
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D71">
         <f t="shared" si="8"/>
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="9"/>
-        <v>FD</v>
+        <v>F0</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="10"/>
-        <v>C6</v>
+        <v>CC</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $FC</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $CC</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D72">
         <f t="shared" si="8"/>
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="9"/>
-        <v>FC</v>
+        <v>F0</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="10"/>
-        <v>C6</v>
+        <v>CC</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $FB</v>
+        <v xml:space="preserve">        fcb   $EF</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $CD</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D73">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="9"/>
-        <v>FB</v>
+        <v>EF</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="10"/>
-        <v>C6</v>
+        <v>CD</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $FA</v>
+        <v xml:space="preserve">        fcb   $EE</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $CE</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D74">
         <f t="shared" si="8"/>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="9"/>
-        <v>FA</v>
+        <v>EE</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="10"/>
-        <v>C6</v>
+        <v>CE</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $ED</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $CF</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D75">
         <f t="shared" si="8"/>
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="9"/>
-        <v>F9</v>
+        <v>ED</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="10"/>
-        <v>C7</v>
+        <v>CF</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $CF</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="9"/>
-        <v>F9</v>
+        <v>EC</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="10"/>
-        <v>C7</v>
+        <v>CF</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F8</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $D0</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D77">
         <f t="shared" si="8"/>
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="9"/>
-        <v>F8</v>
+        <v>EC</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="10"/>
-        <v>C7</v>
+        <v>D0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F7</v>
+        <v xml:space="preserve">        fcb   $EB</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $D1</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D78">
         <f t="shared" si="8"/>
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="9"/>
-        <v>F7</v>
+        <v>EB</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="10"/>
-        <v>C8</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F6</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $D2</v>
       </c>
       <c r="C79">
         <f t="shared" si="11"/>
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="9"/>
-        <v>F6</v>
+        <v>EA</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="10"/>
-        <v>C8</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F5</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $D3</v>
       </c>
       <c r="C80">
         <f t="shared" si="11"/>
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="9"/>
-        <v>F5</v>
+        <v>EA</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="10"/>
-        <v>C8</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $E9</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C9</v>
+        <v xml:space="preserve">        fcb   $D4</v>
       </c>
       <c r="C81">
         <f t="shared" si="11"/>
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="9"/>
-        <v>F4</v>
+        <v>E9</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="10"/>
-        <v>C9</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $E8</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $C9</v>
+        <v xml:space="preserve">        fcb   $D5</v>
       </c>
       <c r="C82">
         <f t="shared" si="11"/>
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D82">
         <f t="shared" si="8"/>
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="9"/>
-        <v>F4</v>
+        <v>E8</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="10"/>
-        <v>C9</v>
+        <v>D5</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F3</v>
+        <v xml:space="preserve">        fcb   $E8</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CA</v>
+        <v xml:space="preserve">        fcb   $D6</v>
       </c>
       <c r="C83">
         <f t="shared" si="11"/>
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D83">
         <f t="shared" si="8"/>
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="9"/>
-        <v>F3</v>
+        <v>E8</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="10"/>
-        <v>CA</v>
+        <v>D6</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F2</v>
+        <v xml:space="preserve">        fcb   $E7</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CB</v>
+        <v xml:space="preserve">        fcb   $D7</v>
       </c>
       <c r="C84">
         <f t="shared" si="11"/>
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D84">
         <f t="shared" si="8"/>
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="9"/>
-        <v>F2</v>
+        <v>E7</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="10"/>
-        <v>CB</v>
+        <v>D7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F1</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CB</v>
+        <v xml:space="preserve">        fcb   $D8</v>
       </c>
       <c r="C85">
         <f t="shared" si="11"/>
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D85">
         <f t="shared" si="8"/>
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="9"/>
-        <v>F1</v>
+        <v>E6</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="10"/>
-        <v>CB</v>
+        <v>D8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F0</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CC</v>
+        <v xml:space="preserve">        fcb   $D9</v>
       </c>
       <c r="C86">
         <f t="shared" si="11"/>
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D86">
         <f t="shared" si="8"/>
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="9"/>
-        <v>F0</v>
+        <v>E6</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="10"/>
-        <v>CC</v>
+        <v>D9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F0</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CC</v>
+        <v xml:space="preserve">        fcb   $DA</v>
       </c>
       <c r="C87">
         <f t="shared" si="11"/>
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D87">
         <f t="shared" si="8"/>
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="9"/>
-        <v>F0</v>
+        <v>E5</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="10"/>
-        <v>CC</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EF</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CD</v>
+        <v xml:space="preserve">        fcb   $DB</v>
       </c>
       <c r="C88">
         <f t="shared" si="11"/>
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D88">
         <f t="shared" si="8"/>
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="9"/>
-        <v>EF</v>
+        <v>E5</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="10"/>
-        <v>CD</v>
+        <v>DB</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EE</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CE</v>
+        <v xml:space="preserve">        fcb   $DC</v>
       </c>
       <c r="C89">
         <f t="shared" si="11"/>
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D89">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="9"/>
-        <v>EE</v>
+        <v>E4</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="10"/>
-        <v>CE</v>
+        <v>DC</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $ED</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CF</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="C90">
         <f t="shared" si="11"/>
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D90">
         <f t="shared" si="8"/>
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="9"/>
-        <v>ED</v>
+        <v>E4</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="10"/>
-        <v>CF</v>
+        <v>DD</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EC</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CF</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="C91">
         <f t="shared" si="11"/>
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D91">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="9"/>
-        <v>EC</v>
+        <v>E3</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="10"/>
-        <v>CF</v>
+        <v>DF</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EC</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D0</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="C92">
         <f t="shared" si="11"/>
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D92">
         <f t="shared" si="8"/>
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="9"/>
-        <v>EC</v>
+        <v>E3</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="10"/>
-        <v>D0</v>
+        <v>E0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EB</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D1</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="C93">
         <f t="shared" si="11"/>
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D93">
         <f t="shared" si="8"/>
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="9"/>
-        <v>EB</v>
+        <v>E2</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="10"/>
-        <v>D1</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D2</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="C94">
         <f t="shared" si="11"/>
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D94">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="9"/>
-        <v>EA</v>
+        <v>E2</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="10"/>
-        <v>D2</v>
+        <v>E2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D3</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="C95">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D95">
         <f t="shared" si="8"/>
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="9"/>
-        <v>EA</v>
+        <v>E1</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="10"/>
-        <v>D3</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E9</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D4</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="C96">
         <f t="shared" si="11"/>
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D96">
         <f t="shared" si="8"/>
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="9"/>
-        <v>E9</v>
+        <v>E1</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="10"/>
-        <v>D4</v>
+        <v>E5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E8</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D5</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="C97">
         <f t="shared" si="11"/>
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D97">
         <f t="shared" si="8"/>
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="9"/>
-        <v>E8</v>
+        <v>E0</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="10"/>
-        <v>D5</v>
+        <v>E6</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E8</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D6</v>
+        <v xml:space="preserve">        fcb   $E7</v>
       </c>
       <c r="C98">
         <f t="shared" si="11"/>
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D98">
         <f t="shared" si="8"/>
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="9"/>
-        <v>E8</v>
+        <v>E0</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="10"/>
-        <v>D6</v>
+        <v>E7</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E7</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D7</v>
+        <v xml:space="preserve">        fcb   $E9</v>
       </c>
       <c r="C99">
         <f t="shared" si="11"/>
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D99">
         <f t="shared" si="8"/>
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="9"/>
-        <v>E7</v>
+        <v>E0</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="10"/>
-        <v>D7</v>
+        <v>E9</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D8</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="C100">
         <f t="shared" si="11"/>
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D100">
         <f t="shared" si="8"/>
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="9"/>
-        <v>E6</v>
+        <v>DF</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="10"/>
-        <v>D8</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D9</v>
+        <v xml:space="preserve">        fcb   $EB</v>
       </c>
       <c r="C101">
         <f t="shared" si="11"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D101">
         <f t="shared" si="8"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="9"/>
-        <v>E6</v>
+        <v>DF</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="10"/>
-        <v>D9</v>
+        <v>EB</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DA</v>
+        <v xml:space="preserve">        fcb   $ED</v>
       </c>
       <c r="C102">
         <f t="shared" si="11"/>
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D102">
         <f t="shared" si="8"/>
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="9"/>
-        <v>E5</v>
+        <v>DF</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="10"/>
-        <v>DA</v>
+        <v>ED</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DB</v>
+        <v xml:space="preserve">        fcb   $EE</v>
       </c>
       <c r="C103">
         <f t="shared" si="11"/>
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D103">
         <f t="shared" si="8"/>
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="9"/>
-        <v>E5</v>
+        <v>DE</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="10"/>
-        <v>DB</v>
+        <v>EE</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E4</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DC</v>
+        <v xml:space="preserve">        fcb   $EF</v>
       </c>
       <c r="C104">
         <f t="shared" si="11"/>
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D104">
         <f t="shared" si="8"/>
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="9"/>
-        <v>E4</v>
+        <v>DE</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="10"/>
-        <v>DC</v>
+        <v>EF</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E4</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $F1</v>
       </c>
       <c r="C105">
         <f t="shared" si="11"/>
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D105">
         <f t="shared" si="8"/>
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="9"/>
-        <v>E4</v>
+        <v>DE</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="10"/>
-        <v>DD</v>
+        <v>F1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $F2</v>
       </c>
       <c r="C106">
         <f t="shared" si="11"/>
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D106">
         <f t="shared" si="8"/>
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="9"/>
-        <v>E3</v>
+        <v>DE</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="10"/>
-        <v>DF</v>
+        <v>F2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="C107">
         <f t="shared" si="11"/>
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D107">
         <f t="shared" si="8"/>
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="9"/>
-        <v>E3</v>
+        <v>DD</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="10"/>
-        <v>E0</v>
+        <v>F4</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $F5</v>
       </c>
       <c r="C108">
         <f t="shared" si="11"/>
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D108">
         <f t="shared" si="8"/>
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="9"/>
-        <v>E2</v>
+        <v>DD</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="10"/>
-        <v>E1</v>
+        <v>F5</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $F6</v>
       </c>
       <c r="C109">
         <f t="shared" si="11"/>
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D109">
         <f t="shared" si="8"/>
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="9"/>
-        <v>E2</v>
+        <v>DD</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="10"/>
-        <v>E2</v>
+        <v>F6</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $F8</v>
       </c>
       <c r="C110">
         <f t="shared" si="11"/>
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D110">
         <f t="shared" si="8"/>
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="9"/>
-        <v>E1</v>
+        <v>DD</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="10"/>
-        <v>E3</v>
+        <v>F8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="C111">
         <f t="shared" si="11"/>
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D111">
         <f t="shared" si="8"/>
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="9"/>
-        <v>E1</v>
+        <v>DD</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="10"/>
-        <v>E5</v>
+        <v>F9</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $FB</v>
       </c>
       <c r="C112">
         <f t="shared" si="11"/>
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D112">
         <f t="shared" si="8"/>
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="9"/>
-        <v>E0</v>
+        <v>DD</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="10"/>
-        <v>E6</v>
+        <v>FB</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E7</v>
+        <v xml:space="preserve">        fcb   $FC</v>
       </c>
       <c r="C113">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D113">
         <f t="shared" si="8"/>
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="9"/>
-        <v>E0</v>
+        <v>DD</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="10"/>
-        <v>E7</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E9</v>
+        <v xml:space="preserve">        fcb   $FE</v>
       </c>
       <c r="C114">
         <f t="shared" si="11"/>
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D114">
         <f t="shared" si="8"/>
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="9"/>
-        <v>E0</v>
+        <v>DD</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="10"/>
-        <v>E9</v>
+        <v>FE</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $FF</v>
       </c>
       <c r="C115">
         <f t="shared" si="11"/>
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D115">
         <f t="shared" si="8"/>
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>DD</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="10"/>
-        <v>EA</v>
+        <v>FF</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $DC</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $EB</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="C116">
         <f t="shared" si="11"/>
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D116">
         <f t="shared" si="8"/>
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>DC</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="10"/>
-        <v>EB</v>
+        <v>00</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $ED</v>
+        <v xml:space="preserve">        fcb   $01</v>
       </c>
       <c r="C117">
         <f t="shared" si="11"/>
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D117">
         <f t="shared" si="8"/>
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>DD</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="10"/>
-        <v>ED</v>
+        <v>01</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $EE</v>
+        <v xml:space="preserve">        fcb   $02</v>
       </c>
       <c r="C118">
         <f t="shared" si="11"/>
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D118">
         <f t="shared" si="8"/>
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>DD</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="10"/>
-        <v>EE</v>
+        <v>02</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $EF</v>
+        <v xml:space="preserve">        fcb   $04</v>
       </c>
       <c r="C119">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D119">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>DD</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="10"/>
-        <v>EF</v>
+        <v>04</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F1</v>
+        <v xml:space="preserve">        fcb   $05</v>
       </c>
       <c r="C120">
         <f t="shared" si="11"/>
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D120">
         <f t="shared" si="8"/>
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>DD</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="10"/>
-        <v>F1</v>
+        <v>05</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F2</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="C121">
         <f t="shared" si="11"/>
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D121">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>DD</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="10"/>
-        <v>F2</v>
+        <v>07</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3569,15 +3569,15 @@
       </c>
       <c r="B122" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $08</v>
       </c>
       <c r="C122">
         <f t="shared" si="11"/>
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D122">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="9"/>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="10"/>
-        <v>F4</v>
+        <v>08</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3595,15 +3595,15 @@
       </c>
       <c r="B123" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F5</v>
+        <v xml:space="preserve">        fcb   $0A</v>
       </c>
       <c r="C123">
         <f t="shared" si="11"/>
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D123">
         <f t="shared" si="8"/>
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="9"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="F123" t="str">
         <f t="shared" si="10"/>
-        <v>F5</v>
+        <v>0A</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3621,15 +3621,15 @@
       </c>
       <c r="B124" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F6</v>
+        <v xml:space="preserve">        fcb   $0B</v>
       </c>
       <c r="C124">
         <f t="shared" si="11"/>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D124">
         <f t="shared" si="8"/>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="9"/>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="F124" t="str">
         <f t="shared" si="10"/>
-        <v>F6</v>
+        <v>0B</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3647,15 +3647,15 @@
       </c>
       <c r="B125" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F8</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="C125">
         <f t="shared" si="11"/>
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D125">
         <f t="shared" si="8"/>
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="9"/>
@@ -3663,3231 +3663,3231 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" si="10"/>
-        <v>F8</v>
+        <v>0C</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $0E</v>
       </c>
       <c r="C126">
         <f t="shared" si="11"/>
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D126">
         <f t="shared" si="8"/>
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>DE</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="10"/>
-        <v>F9</v>
+        <v>0E</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $FB</v>
+        <v xml:space="preserve">        fcb   $0F</v>
       </c>
       <c r="C127">
         <f t="shared" si="11"/>
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D127">
         <f t="shared" si="8"/>
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>DE</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="10"/>
-        <v>FB</v>
+        <v>0F</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $FC</v>
+        <v xml:space="preserve">        fcb   $11</v>
       </c>
       <c r="C128">
         <f t="shared" si="11"/>
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D128">
         <f t="shared" si="8"/>
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>DE</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="10"/>
-        <v>FC</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $FE</v>
+        <v xml:space="preserve">        fcb   $12</v>
       </c>
       <c r="C129">
         <f t="shared" si="11"/>
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D129">
         <f t="shared" si="8"/>
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>DE</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="10"/>
-        <v>FE</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $FF</v>
+        <v xml:space="preserve">        fcb   $13</v>
       </c>
       <c r="C130">
         <f t="shared" si="11"/>
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D130">
         <f t="shared" si="8"/>
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>DF</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="10"/>
-        <v>FF</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DC</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $15</v>
       </c>
       <c r="C131">
         <f t="shared" si="11"/>
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D131">
         <f t="shared" si="8"/>
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="9"/>
-        <v>DC</v>
+        <v>DF</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $01</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="C132">
         <f t="shared" si="11"/>
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D132">
         <f t="shared" si="8"/>
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>DF</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="10"/>
-        <v>01</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f t="shared" ref="A133:A196" si="12">"        fcb   $"&amp;E133</f>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" ref="B133:B196" si="13">"        fcb   $"&amp;F133</f>
-        <v xml:space="preserve">        fcb   $02</v>
+        <v xml:space="preserve">        fcb   $17</v>
       </c>
       <c r="C133">
         <f t="shared" si="11"/>
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D133">
         <f t="shared" ref="D133:D196" si="14">IF(C133&gt;255,C133-256,C133)</f>
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" ref="E133:E196" si="15">RIGHT(DEC2HEX($C$2*SIN(RADIANS(D133*(360/256))),2),2)</f>
-        <v>DD</v>
+        <v>E0</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" ref="F133:F196" si="16">RIGHT(DEC2HEX($E$2*COS(RADIANS(C133*(360/256))),2),2)</f>
-        <v>02</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $04</v>
+        <v xml:space="preserve">        fcb   $19</v>
       </c>
       <c r="C134">
         <f t="shared" ref="C134:C197" si="17">C133+1</f>
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D134">
         <f t="shared" si="14"/>
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="15"/>
-        <v>DD</v>
+        <v>E0</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="16"/>
-        <v>04</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $05</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="C135">
         <f t="shared" si="17"/>
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D135">
         <f t="shared" si="14"/>
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="15"/>
-        <v>DD</v>
+        <v>E0</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="16"/>
-        <v>05</v>
+        <v>1A</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="C136">
         <f t="shared" si="17"/>
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D136">
         <f t="shared" si="14"/>
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="15"/>
-        <v>DD</v>
+        <v>E1</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="16"/>
-        <v>07</v>
+        <v>1B</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $08</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="C137">
         <f t="shared" si="17"/>
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D137">
         <f t="shared" si="14"/>
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="15"/>
-        <v>DD</v>
+        <v>E1</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="16"/>
-        <v>08</v>
+        <v>1D</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $0A</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="C138">
         <f t="shared" si="17"/>
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D138">
         <f t="shared" si="14"/>
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="15"/>
-        <v>DD</v>
+        <v>E2</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="16"/>
-        <v>0A</v>
+        <v>1E</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $0B</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="C139">
         <f t="shared" si="17"/>
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D139">
         <f t="shared" si="14"/>
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="15"/>
-        <v>DD</v>
+        <v>E2</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="16"/>
-        <v>0B</v>
+        <v>1F</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="C140">
         <f t="shared" si="17"/>
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D140">
         <f t="shared" si="14"/>
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="15"/>
-        <v>DD</v>
+        <v>E3</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="16"/>
-        <v>0C</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $0E</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="C141">
         <f t="shared" si="17"/>
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D141">
         <f t="shared" si="14"/>
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="15"/>
-        <v>DE</v>
+        <v>E3</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="16"/>
-        <v>0E</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $0F</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="C142">
         <f t="shared" si="17"/>
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D142">
         <f t="shared" si="14"/>
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="15"/>
-        <v>DE</v>
+        <v>E4</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="16"/>
-        <v>0F</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $11</v>
+        <v xml:space="preserve">        fcb   $24</v>
       </c>
       <c r="C143">
         <f t="shared" si="17"/>
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D143">
         <f t="shared" si="14"/>
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="15"/>
-        <v>DE</v>
+        <v>E4</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="16"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $12</v>
+        <v xml:space="preserve">        fcb   $25</v>
       </c>
       <c r="C144">
         <f t="shared" si="17"/>
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D144">
         <f t="shared" si="14"/>
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="15"/>
-        <v>DE</v>
+        <v>E5</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $13</v>
+        <v xml:space="preserve">        fcb   $26</v>
       </c>
       <c r="C145">
         <f t="shared" si="17"/>
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D145">
         <f t="shared" si="14"/>
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="15"/>
-        <v>DF</v>
+        <v>E5</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $15</v>
+        <v xml:space="preserve">        fcb   $27</v>
       </c>
       <c r="C146">
         <f t="shared" si="17"/>
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D146">
         <f t="shared" si="14"/>
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="15"/>
-        <v>DF</v>
+        <v>E6</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $28</v>
       </c>
       <c r="C147">
         <f t="shared" si="17"/>
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D147">
         <f t="shared" si="14"/>
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="15"/>
-        <v>DF</v>
+        <v>E6</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $E7</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $17</v>
+        <v xml:space="preserve">        fcb   $29</v>
       </c>
       <c r="C148">
         <f t="shared" si="17"/>
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D148">
         <f t="shared" si="14"/>
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="15"/>
-        <v>E0</v>
+        <v>E7</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $E8</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $19</v>
+        <v xml:space="preserve">        fcb   $2A</v>
       </c>
       <c r="C149">
         <f t="shared" si="17"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D149">
         <f t="shared" si="14"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="15"/>
-        <v>E0</v>
+        <v>E8</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>2A</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $E8</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $2B</v>
       </c>
       <c r="C150">
         <f t="shared" si="17"/>
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D150">
         <f t="shared" si="14"/>
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="15"/>
-        <v>E0</v>
+        <v>E8</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="16"/>
-        <v>1A</v>
+        <v>2B</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $E9</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $2C</v>
       </c>
       <c r="C151">
         <f t="shared" si="17"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D151">
         <f t="shared" si="14"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="15"/>
-        <v>E1</v>
+        <v>E9</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="16"/>
-        <v>1B</v>
+        <v>2C</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $2D</v>
       </c>
       <c r="C152">
         <f t="shared" si="17"/>
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D152">
         <f t="shared" si="14"/>
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="15"/>
-        <v>E1</v>
+        <v>EA</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="16"/>
-        <v>1D</v>
+        <v>2D</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $2E</v>
       </c>
       <c r="C153">
         <f t="shared" si="17"/>
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D153">
         <f t="shared" si="14"/>
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="15"/>
-        <v>E2</v>
+        <v>EA</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="16"/>
-        <v>1E</v>
+        <v>2E</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $EB</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $2F</v>
       </c>
       <c r="C154">
         <f t="shared" si="17"/>
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D154">
         <f t="shared" si="14"/>
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="15"/>
-        <v>E2</v>
+        <v>EB</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="16"/>
-        <v>1F</v>
+        <v>2F</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $30</v>
       </c>
       <c r="C155">
         <f t="shared" si="17"/>
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D155">
         <f t="shared" si="14"/>
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="15"/>
-        <v>E3</v>
+        <v>EC</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $31</v>
       </c>
       <c r="C156">
         <f t="shared" si="17"/>
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D156">
         <f t="shared" si="14"/>
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="15"/>
-        <v>E3</v>
+        <v>EC</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="16"/>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E4</v>
+        <v xml:space="preserve">        fcb   $ED</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $31</v>
       </c>
       <c r="C157">
         <f t="shared" si="17"/>
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D157">
         <f t="shared" si="14"/>
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="15"/>
-        <v>E4</v>
+        <v>ED</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="16"/>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E4</v>
+        <v xml:space="preserve">        fcb   $EE</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $24</v>
+        <v xml:space="preserve">        fcb   $32</v>
       </c>
       <c r="C158">
         <f t="shared" si="17"/>
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D158">
         <f t="shared" si="14"/>
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="15"/>
-        <v>E4</v>
+        <v>EE</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $EF</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $25</v>
+        <v xml:space="preserve">        fcb   $33</v>
       </c>
       <c r="C159">
         <f t="shared" si="17"/>
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D159">
         <f t="shared" si="14"/>
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="15"/>
-        <v>E5</v>
+        <v>EF</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $26</v>
+        <v xml:space="preserve">        fcb   $34</v>
       </c>
       <c r="C160">
         <f t="shared" si="17"/>
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D160">
         <f t="shared" si="14"/>
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="15"/>
-        <v>E5</v>
+        <v>F0</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="16"/>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $27</v>
+        <v xml:space="preserve">        fcb   $34</v>
       </c>
       <c r="C161">
         <f t="shared" si="17"/>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D161">
         <f t="shared" si="14"/>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="15"/>
-        <v>E6</v>
+        <v>F0</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $F1</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $28</v>
+        <v xml:space="preserve">        fcb   $35</v>
       </c>
       <c r="C162">
         <f t="shared" si="17"/>
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D162">
         <f t="shared" si="14"/>
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="15"/>
-        <v>E6</v>
+        <v>F1</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="16"/>
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E7</v>
+        <v xml:space="preserve">        fcb   $F2</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $29</v>
+        <v xml:space="preserve">        fcb   $35</v>
       </c>
       <c r="C163">
         <f t="shared" si="17"/>
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D163">
         <f t="shared" si="14"/>
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="15"/>
-        <v>E7</v>
+        <v>F2</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="16"/>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E8</v>
+        <v xml:space="preserve">        fcb   $F3</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2A</v>
+        <v xml:space="preserve">        fcb   $36</v>
       </c>
       <c r="C164">
         <f t="shared" si="17"/>
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D164">
         <f t="shared" si="14"/>
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="15"/>
-        <v>E8</v>
+        <v>F3</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="16"/>
-        <v>2A</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E8</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2B</v>
+        <v xml:space="preserve">        fcb   $37</v>
       </c>
       <c r="C165">
         <f t="shared" si="17"/>
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D165">
         <f t="shared" si="14"/>
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="15"/>
-        <v>E8</v>
+        <v>F4</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="16"/>
-        <v>2B</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E9</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2C</v>
+        <v xml:space="preserve">        fcb   $37</v>
       </c>
       <c r="C166">
         <f t="shared" si="17"/>
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D166">
         <f t="shared" si="14"/>
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="15"/>
-        <v>E9</v>
+        <v>F4</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="16"/>
-        <v>2C</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $F5</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2D</v>
+        <v xml:space="preserve">        fcb   $38</v>
       </c>
       <c r="C167">
         <f t="shared" si="17"/>
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D167">
         <f t="shared" si="14"/>
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="15"/>
-        <v>EA</v>
+        <v>F5</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="16"/>
-        <v>2D</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $F6</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2E</v>
+        <v xml:space="preserve">        fcb   $38</v>
       </c>
       <c r="C168">
         <f t="shared" si="17"/>
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D168">
         <f t="shared" si="14"/>
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="15"/>
-        <v>EA</v>
+        <v>F6</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="16"/>
-        <v>2E</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EB</v>
+        <v xml:space="preserve">        fcb   $F7</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2F</v>
+        <v xml:space="preserve">        fcb   $38</v>
       </c>
       <c r="C169">
         <f t="shared" si="17"/>
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D169">
         <f t="shared" si="14"/>
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="15"/>
-        <v>EB</v>
+        <v>F7</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="16"/>
-        <v>2F</v>
+        <v>38</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EC</v>
+        <v xml:space="preserve">        fcb   $F8</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $30</v>
+        <v xml:space="preserve">        fcb   $39</v>
       </c>
       <c r="C170">
         <f t="shared" si="17"/>
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D170">
         <f t="shared" si="14"/>
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="15"/>
-        <v>EC</v>
+        <v>F8</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EC</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $31</v>
+        <v xml:space="preserve">        fcb   $39</v>
       </c>
       <c r="C171">
         <f t="shared" si="17"/>
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D171">
         <f t="shared" si="14"/>
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="15"/>
-        <v>EC</v>
+        <v>F9</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $ED</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $31</v>
+        <v xml:space="preserve">        fcb   $39</v>
       </c>
       <c r="C172">
         <f t="shared" si="17"/>
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D172">
         <f t="shared" si="14"/>
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="15"/>
-        <v>ED</v>
+        <v>F9</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EE</v>
+        <v xml:space="preserve">        fcb   $FA</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $32</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C173">
         <f t="shared" si="17"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D173">
         <f t="shared" si="14"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="15"/>
-        <v>EE</v>
+        <v>FA</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EF</v>
+        <v xml:space="preserve">        fcb   $FB</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $33</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C174">
         <f t="shared" si="17"/>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D174">
         <f t="shared" si="14"/>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="15"/>
-        <v>EF</v>
+        <v>FB</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="16"/>
-        <v>33</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F0</v>
+        <v xml:space="preserve">        fcb   $FC</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $34</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C175">
         <f t="shared" si="17"/>
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D175">
         <f t="shared" si="14"/>
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="15"/>
-        <v>F0</v>
+        <v>FC</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="16"/>
-        <v>34</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F0</v>
+        <v xml:space="preserve">        fcb   $FD</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $34</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C176">
         <f t="shared" si="17"/>
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D176">
         <f t="shared" si="14"/>
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="15"/>
-        <v>F0</v>
+        <v>FD</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="16"/>
-        <v>34</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F1</v>
+        <v xml:space="preserve">        fcb   $FE</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $35</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C177">
         <f t="shared" si="17"/>
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D177">
         <f t="shared" si="14"/>
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="15"/>
-        <v>F1</v>
+        <v>FE</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="16"/>
-        <v>35</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F2</v>
+        <v xml:space="preserve">        fcb   $FF</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $35</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C178">
         <f t="shared" si="17"/>
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D178">
         <f t="shared" si="14"/>
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="15"/>
-        <v>F2</v>
+        <v>FF</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="16"/>
-        <v>35</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F3</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $36</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C179">
         <f t="shared" si="17"/>
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D179">
         <f t="shared" si="14"/>
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="15"/>
-        <v>F3</v>
+        <v>00</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="16"/>
-        <v>36</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $37</v>
+        <v xml:space="preserve">        fcb   $3B</v>
       </c>
       <c r="C180">
         <f t="shared" si="17"/>
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D180">
         <f t="shared" si="14"/>
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="15"/>
-        <v>F4</v>
+        <v>00</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="16"/>
-        <v>37</v>
+        <v>3B</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $37</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C181">
         <f t="shared" si="17"/>
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D181">
         <f t="shared" si="14"/>
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="15"/>
-        <v>F4</v>
+        <v>00</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="16"/>
-        <v>37</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F5</v>
+        <v xml:space="preserve">        fcb   $01</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C182">
         <f t="shared" si="17"/>
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D182">
         <f t="shared" si="14"/>
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="15"/>
-        <v>F5</v>
+        <v>01</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F6</v>
+        <v xml:space="preserve">        fcb   $02</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C183">
         <f t="shared" si="17"/>
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D183">
         <f t="shared" si="14"/>
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="15"/>
-        <v>F6</v>
+        <v>02</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F7</v>
+        <v xml:space="preserve">        fcb   $03</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C184">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D184">
         <f t="shared" si="14"/>
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="15"/>
-        <v>F7</v>
+        <v>03</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F8</v>
+        <v xml:space="preserve">        fcb   $04</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C185">
         <f t="shared" si="17"/>
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D185">
         <f t="shared" si="14"/>
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="15"/>
-        <v>F8</v>
+        <v>04</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $05</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C186">
         <f t="shared" si="17"/>
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D186">
         <f t="shared" si="14"/>
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="15"/>
-        <v>F9</v>
+        <v>05</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $06</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C187">
         <f t="shared" si="17"/>
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D187">
         <f t="shared" si="14"/>
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="15"/>
-        <v>F9</v>
+        <v>06</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FA</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $39</v>
       </c>
       <c r="C188">
         <f t="shared" si="17"/>
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D188">
         <f t="shared" si="14"/>
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="15"/>
-        <v>FA</v>
+        <v>07</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FB</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $39</v>
       </c>
       <c r="C189">
         <f t="shared" si="17"/>
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D189">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="15"/>
-        <v>FB</v>
+        <v>07</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FC</v>
+        <v xml:space="preserve">        fcb   $08</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $39</v>
       </c>
       <c r="C190">
         <f t="shared" si="17"/>
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D190">
         <f t="shared" si="14"/>
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="15"/>
-        <v>FC</v>
+        <v>08</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FD</v>
+        <v xml:space="preserve">        fcb   $09</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $38</v>
       </c>
       <c r="C191">
         <f t="shared" si="17"/>
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D191">
         <f t="shared" si="14"/>
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="15"/>
-        <v>FD</v>
+        <v>09</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>38</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FE</v>
+        <v xml:space="preserve">        fcb   $0A</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $38</v>
       </c>
       <c r="C192">
         <f t="shared" si="17"/>
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D192">
         <f t="shared" si="14"/>
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="15"/>
-        <v>FE</v>
+        <v>0A</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FF</v>
+        <v xml:space="preserve">        fcb   $0B</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $38</v>
       </c>
       <c r="C193">
         <f t="shared" si="17"/>
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D193">
         <f t="shared" si="14"/>
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="15"/>
-        <v>FF</v>
+        <v>0B</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $37</v>
       </c>
       <c r="C194">
         <f t="shared" si="17"/>
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D194">
         <f t="shared" si="14"/>
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="15"/>
-        <v>00</v>
+        <v>0C</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3B</v>
+        <v xml:space="preserve">        fcb   $37</v>
       </c>
       <c r="C195">
         <f t="shared" si="17"/>
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D195">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="15"/>
-        <v>00</v>
+        <v>0C</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" si="16"/>
-        <v>3B</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $0D</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $36</v>
       </c>
       <c r="C196">
         <f t="shared" si="17"/>
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D196">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="15"/>
-        <v>00</v>
+        <v>0D</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
         <f t="shared" ref="A197:A259" si="18">"        fcb   $"&amp;E197</f>
-        <v xml:space="preserve">        fcb   $01</v>
+        <v xml:space="preserve">        fcb   $0E</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" ref="B197:B259" si="19">"        fcb   $"&amp;F197</f>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $35</v>
       </c>
       <c r="C197">
         <f t="shared" si="17"/>
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D197">
         <f t="shared" ref="D197:D259" si="20">IF(C197&gt;255,C197-256,C197)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" ref="E197:E259" si="21">RIGHT(DEC2HEX($C$2*SIN(RADIANS(D197*(360/256))),2),2)</f>
-        <v>01</v>
+        <v>0E</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" ref="F197:F259" si="22">RIGHT(DEC2HEX($E$2*COS(RADIANS(C197*(360/256))),2),2)</f>
-        <v>3A</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $02</v>
+        <v xml:space="preserve">        fcb   $0F</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $35</v>
       </c>
       <c r="C198">
         <f t="shared" ref="C198:C259" si="23">C197+1</f>
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D198">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="21"/>
-        <v>02</v>
+        <v>0F</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="22"/>
-        <v>3A</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $03</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $34</v>
       </c>
       <c r="C199">
         <f t="shared" si="23"/>
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D199">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="21"/>
-        <v>03</v>
+        <v>10</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="22"/>
-        <v>3A</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $04</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $34</v>
       </c>
       <c r="C200">
         <f t="shared" si="23"/>
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D200">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="21"/>
-        <v>04</v>
+        <v>10</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="22"/>
-        <v>3A</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $05</v>
+        <v xml:space="preserve">        fcb   $11</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $33</v>
       </c>
       <c r="C201">
         <f t="shared" si="23"/>
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D201">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="21"/>
-        <v>05</v>
+        <v>11</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="22"/>
-        <v>3A</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $06</v>
+        <v xml:space="preserve">        fcb   $12</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $32</v>
       </c>
       <c r="C202">
         <f t="shared" si="23"/>
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D202">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="21"/>
-        <v>06</v>
+        <v>12</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="22"/>
-        <v>3A</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $13</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $31</v>
       </c>
       <c r="C203">
         <f t="shared" si="23"/>
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D203">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="21"/>
-        <v>07</v>
+        <v>13</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="22"/>
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $31</v>
       </c>
       <c r="C204">
         <f t="shared" si="23"/>
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D204">
         <f t="shared" si="20"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="21"/>
-        <v>07</v>
+        <v>14</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="22"/>
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $08</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $30</v>
       </c>
       <c r="C205">
         <f t="shared" si="23"/>
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D205">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="21"/>
-        <v>08</v>
+        <v>14</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="22"/>
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $09</v>
+        <v xml:space="preserve">        fcb   $15</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $2F</v>
       </c>
       <c r="C206">
         <f t="shared" si="23"/>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D206">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="21"/>
-        <v>09</v>
+        <v>15</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="22"/>
-        <v>38</v>
+        <v>2F</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $0A</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $2E</v>
       </c>
       <c r="C207">
         <f t="shared" si="23"/>
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D207">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="21"/>
-        <v>0A</v>
+        <v>16</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="22"/>
-        <v>38</v>
+        <v>2E</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $0B</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $2D</v>
       </c>
       <c r="C208">
         <f t="shared" si="23"/>
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D208">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="21"/>
-        <v>0B</v>
+        <v>16</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="22"/>
-        <v>38</v>
+        <v>2D</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $17</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $37</v>
+        <v xml:space="preserve">        fcb   $2C</v>
       </c>
       <c r="C209">
         <f t="shared" si="23"/>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D209">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="21"/>
-        <v>0C</v>
+        <v>17</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="22"/>
-        <v>37</v>
+        <v>2C</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $18</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $37</v>
+        <v xml:space="preserve">        fcb   $2B</v>
       </c>
       <c r="C210">
         <f t="shared" si="23"/>
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D210">
         <f t="shared" si="20"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="21"/>
-        <v>0C</v>
+        <v>18</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="22"/>
-        <v>37</v>
+        <v>2B</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $0D</v>
+        <v xml:space="preserve">        fcb   $18</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $36</v>
+        <v xml:space="preserve">        fcb   $2A</v>
       </c>
       <c r="C211">
         <f t="shared" si="23"/>
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D211">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="21"/>
-        <v>0D</v>
+        <v>18</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="22"/>
-        <v>36</v>
+        <v>2A</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $0E</v>
+        <v xml:space="preserve">        fcb   $19</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $35</v>
+        <v xml:space="preserve">        fcb   $29</v>
       </c>
       <c r="C212">
         <f t="shared" si="23"/>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D212">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="21"/>
-        <v>0E</v>
+        <v>19</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="22"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $0F</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $35</v>
+        <v xml:space="preserve">        fcb   $28</v>
       </c>
       <c r="C213">
         <f t="shared" si="23"/>
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="D213">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="21"/>
-        <v>0F</v>
+        <v>1A</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="22"/>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $10</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $34</v>
+        <v xml:space="preserve">        fcb   $27</v>
       </c>
       <c r="C214">
         <f t="shared" si="23"/>
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D214">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>1A</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="22"/>
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $10</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $34</v>
+        <v xml:space="preserve">        fcb   $26</v>
       </c>
       <c r="C215">
         <f t="shared" si="23"/>
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D215">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>1B</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="22"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $11</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $33</v>
+        <v xml:space="preserve">        fcb   $25</v>
       </c>
       <c r="C216">
         <f t="shared" si="23"/>
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D216">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>1B</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $12</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $32</v>
+        <v xml:space="preserve">        fcb   $24</v>
       </c>
       <c r="C217">
         <f t="shared" si="23"/>
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D217">
         <f t="shared" si="20"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>1C</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="22"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $13</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $31</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="C218">
         <f t="shared" si="23"/>
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D218">
         <f t="shared" si="20"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>1C</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $14</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $31</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="C219">
         <f t="shared" si="23"/>
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D219">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>1D</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $14</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $30</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="C220">
         <f t="shared" si="23"/>
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D220">
         <f t="shared" si="20"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>1D</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $15</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2F</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="C221">
         <f t="shared" si="23"/>
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D221">
         <f t="shared" si="20"/>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>1E</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="22"/>
-        <v>2F</v>
+        <v>1F</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2E</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="C222">
         <f t="shared" si="23"/>
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D222">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>1E</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="22"/>
-        <v>2E</v>
+        <v>1E</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2D</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="C223">
         <f t="shared" si="23"/>
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D223">
         <f t="shared" si="20"/>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>1F</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="22"/>
-        <v>2D</v>
+        <v>1D</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $17</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2C</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="C224">
         <f t="shared" si="23"/>
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D224">
         <f t="shared" si="20"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>1F</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="22"/>
-        <v>2C</v>
+        <v>1B</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $18</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2B</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="C225">
         <f t="shared" si="23"/>
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D225">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="22"/>
-        <v>2B</v>
+        <v>1A</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $18</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2A</v>
+        <v xml:space="preserve">        fcb   $19</v>
       </c>
       <c r="C226">
         <f t="shared" si="23"/>
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D226">
         <f t="shared" si="20"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="22"/>
-        <v>2A</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $19</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $29</v>
+        <v xml:space="preserve">        fcb   $17</v>
       </c>
       <c r="C227">
         <f t="shared" si="23"/>
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D227">
         <f t="shared" si="20"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $28</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="C228">
         <f t="shared" si="23"/>
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D228">
         <f t="shared" si="20"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="21"/>
-        <v>1A</v>
+        <v>21</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="22"/>
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $27</v>
+        <v xml:space="preserve">        fcb   $15</v>
       </c>
       <c r="C229">
         <f t="shared" si="23"/>
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D229">
         <f t="shared" si="20"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="21"/>
-        <v>1A</v>
+        <v>21</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="22"/>
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $26</v>
+        <v xml:space="preserve">        fcb   $13</v>
       </c>
       <c r="C230">
         <f t="shared" si="23"/>
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D230">
         <f t="shared" si="20"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="21"/>
-        <v>1B</v>
+        <v>21</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $25</v>
+        <v xml:space="preserve">        fcb   $12</v>
       </c>
       <c r="C231">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D231">
         <f t="shared" si="20"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="21"/>
-        <v>1B</v>
+        <v>22</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1C</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $24</v>
+        <v xml:space="preserve">        fcb   $11</v>
       </c>
       <c r="C232">
         <f t="shared" si="23"/>
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D232">
         <f t="shared" si="20"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="21"/>
-        <v>1C</v>
+        <v>22</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1C</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $0F</v>
       </c>
       <c r="C233">
         <f t="shared" si="23"/>
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D233">
         <f t="shared" si="20"/>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="21"/>
-        <v>1C</v>
+        <v>22</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="22"/>
-        <v>23</v>
+        <v>0F</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $0E</v>
       </c>
       <c r="C234">
         <f t="shared" si="23"/>
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D234">
         <f t="shared" si="20"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="21"/>
-        <v>1D</v>
+        <v>22</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>0E</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="C235">
         <f t="shared" si="23"/>
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D235">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="21"/>
-        <v>1D</v>
+        <v>23</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>0C</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $0B</v>
       </c>
       <c r="C236">
         <f t="shared" si="23"/>
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D236">
         <f t="shared" si="20"/>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="21"/>
-        <v>1E</v>
+        <v>23</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="22"/>
-        <v>1F</v>
+        <v>0B</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $0A</v>
       </c>
       <c r="C237">
         <f t="shared" si="23"/>
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D237">
         <f t="shared" si="20"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="21"/>
-        <v>1E</v>
+        <v>23</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="22"/>
-        <v>1E</v>
+        <v>0A</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $08</v>
       </c>
       <c r="C238">
         <f t="shared" si="23"/>
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D238">
         <f t="shared" si="20"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="21"/>
-        <v>1F</v>
+        <v>23</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="22"/>
-        <v>1D</v>
+        <v>08</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="C239">
         <f t="shared" si="23"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D239">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="21"/>
-        <v>1F</v>
+        <v>23</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="22"/>
-        <v>1B</v>
+        <v>07</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $05</v>
       </c>
       <c r="C240">
         <f t="shared" si="23"/>
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D240">
         <f t="shared" si="20"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="22"/>
-        <v>1A</v>
+        <v>05</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $19</v>
+        <v xml:space="preserve">        fcb   $04</v>
       </c>
       <c r="C241">
         <f t="shared" si="23"/>
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D241">
         <f t="shared" si="20"/>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>04</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $17</v>
+        <v xml:space="preserve">        fcb   $02</v>
       </c>
       <c r="C242">
         <f t="shared" si="23"/>
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D242">
         <f t="shared" si="20"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>02</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $01</v>
       </c>
       <c r="C243">
         <f t="shared" si="23"/>
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D243">
         <f t="shared" si="20"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>01</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $24</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $15</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="C244">
         <f t="shared" si="23"/>
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D244">
         <f t="shared" si="20"/>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>00</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $13</v>
+        <v xml:space="preserve">        fcb   $FF</v>
       </c>
       <c r="C245">
         <f t="shared" si="23"/>
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D245">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>FF</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $12</v>
+        <v xml:space="preserve">        fcb   $FE</v>
       </c>
       <c r="C246">
         <f t="shared" si="23"/>
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="D246">
         <f t="shared" si="20"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>FE</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $11</v>
+        <v xml:space="preserve">        fcb   $FC</v>
       </c>
       <c r="C247">
         <f t="shared" si="23"/>
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D247">
         <f t="shared" si="20"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0F</v>
+        <v xml:space="preserve">        fcb   $FB</v>
       </c>
       <c r="C248">
         <f t="shared" si="23"/>
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D248">
         <f t="shared" si="20"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="22"/>
-        <v>0F</v>
+        <v>FB</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0E</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="C249">
         <f t="shared" si="23"/>
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D249">
         <f t="shared" si="20"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="22"/>
-        <v>0E</v>
+        <v>F9</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -6897,15 +6897,15 @@
       </c>
       <c r="B250" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $F8</v>
       </c>
       <c r="C250">
         <f t="shared" si="23"/>
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D250">
         <f t="shared" si="20"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="21"/>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="F250" t="str">
         <f t="shared" si="22"/>
-        <v>0C</v>
+        <v>F8</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -6923,15 +6923,15 @@
       </c>
       <c r="B251" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0B</v>
+        <v xml:space="preserve">        fcb   $F6</v>
       </c>
       <c r="C251">
         <f t="shared" si="23"/>
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D251">
         <f t="shared" si="20"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="21"/>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="F251" t="str">
         <f t="shared" si="22"/>
-        <v>0B</v>
+        <v>F6</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -6949,15 +6949,15 @@
       </c>
       <c r="B252" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0A</v>
+        <v xml:space="preserve">        fcb   $F5</v>
       </c>
       <c r="C252">
         <f t="shared" si="23"/>
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D252">
         <f t="shared" si="20"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E252" t="str">
         <f t="shared" si="21"/>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="F252" t="str">
         <f t="shared" si="22"/>
-        <v>0A</v>
+        <v>F5</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -6975,15 +6975,15 @@
       </c>
       <c r="B253" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $08</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="C253">
         <f t="shared" si="23"/>
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D253">
         <f t="shared" si="20"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E253" t="str">
         <f t="shared" si="21"/>
@@ -6991,163 +6991,163 @@
       </c>
       <c r="F253" t="str">
         <f t="shared" si="22"/>
-        <v>08</v>
+        <v>F4</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $F2</v>
       </c>
       <c r="C254">
         <f t="shared" si="23"/>
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D254">
         <f t="shared" si="20"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E254" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="22"/>
-        <v>07</v>
+        <v>F2</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $05</v>
+        <v xml:space="preserve">        fcb   $F1</v>
       </c>
       <c r="C255">
         <f t="shared" si="23"/>
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D255">
         <f t="shared" si="20"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E255" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="22"/>
-        <v>05</v>
+        <v>F1</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $04</v>
+        <v xml:space="preserve">        fcb   $EF</v>
       </c>
       <c r="C256">
         <f t="shared" si="23"/>
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D256">
         <f t="shared" si="20"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E256" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="22"/>
-        <v>04</v>
+        <v>EF</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $02</v>
+        <v xml:space="preserve">        fcb   $EE</v>
       </c>
       <c r="C257">
         <f t="shared" si="23"/>
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D257">
         <f t="shared" si="20"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E257" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="22"/>
-        <v>02</v>
+        <v>EE</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $01</v>
+        <v xml:space="preserve">        fcb   $ED</v>
       </c>
       <c r="C258">
         <f t="shared" si="23"/>
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="D258">
         <f t="shared" si="20"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E258" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="22"/>
-        <v>01</v>
+        <v>ED</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $24</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B259" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $EB</v>
       </c>
       <c r="C259">
         <f t="shared" si="23"/>
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D259">
         <f t="shared" si="20"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E259" t="str">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="22"/>
-        <v>00</v>
+        <v>EB</v>
       </c>
     </row>
   </sheetData>

--- a/game-projects/r-type/objects/enemies/01/shell/sinus.xlsx
+++ b/game-projects/r-type/objects/enemies/01/shell/sinus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yriou/Documents/GitHub/thomson-to8-game-engine/game-projects/r-type/objects/enemies/01/shell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5787D-3887-7043-8297-510F914AA3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C10B97-EC7F-A34E-BA2A-DAAF0C0CB12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8D9165BA-C0B4-4D28-8830-DD2EFAB4F0E8}"/>
   </bookViews>
@@ -116,7 +116,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B4" sqref="B4:B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="I1">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -497,625 +497,625 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"        fcb   $"&amp;E4</f>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B4" t="str">
         <f>"        fcb   $"&amp;F4</f>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $42</v>
       </c>
       <c r="C4">
         <f>I1</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>IF(C4&gt;255,C4-256,C4)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <f>RIGHT(DEC2HEX($C$2*SIN(RADIANS(D4*(360/256))),2),2)</f>
-        <v>21</v>
+        <v>00</v>
       </c>
       <c r="F4" t="str">
         <f>RIGHT(DEC2HEX($E$2*COS(RADIANS(C4*(360/256))),2),2)</f>
-        <v>EA</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A68" si="0">"        fcb   $"&amp;E5</f>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B68" si="1">"        fcb   $"&amp;F5</f>
-        <v xml:space="preserve">        fcb   $E9</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C5">
         <f>C4+1</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D68" si="2">IF(C5&gt;255,C5-256,C5)</f>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E68" si="3">RIGHT(DEC2HEX($C$2*SIN(RADIANS(D5*(360/256))),2),2)</f>
-        <v>20</v>
+        <v>00</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F68" si="4">RIGHT(DEC2HEX($E$2*COS(RADIANS(C5*(360/256))),2),2)</f>
-        <v>E9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $01</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E7</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C69" si="5">C5+1</f>
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>01</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v>E7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $02</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C7">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>02</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="4"/>
-        <v>E6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $03</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="3"/>
-        <v>1F</v>
+        <v>03</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="4"/>
-        <v>E5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $04</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="3"/>
-        <v>1F</v>
+        <v>04</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="4"/>
-        <v>E3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $05</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="3"/>
-        <v>1E</v>
+        <v>05</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="4"/>
-        <v>E2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $06</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="3"/>
-        <v>1E</v>
+        <v>06</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="4"/>
-        <v>E1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $40</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="3"/>
-        <v>1D</v>
+        <v>07</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="4"/>
-        <v>E0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $40</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="3"/>
-        <v>1D</v>
+        <v>07</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="4"/>
-        <v>DF</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1C</v>
+        <v xml:space="preserve">        fcb   $08</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $40</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="3"/>
-        <v>1C</v>
+        <v>08</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="4"/>
-        <v>DD</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1C</v>
+        <v xml:space="preserve">        fcb   $09</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DC</v>
+        <v xml:space="preserve">        fcb   $3F</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="3"/>
-        <v>1C</v>
+        <v>09</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="4"/>
-        <v>DC</v>
+        <v>3F</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $0A</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DB</v>
+        <v xml:space="preserve">        fcb   $3F</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="3"/>
-        <v>1B</v>
+        <v>0A</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="4"/>
-        <v>DB</v>
+        <v>3F</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $0B</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $DA</v>
+        <v xml:space="preserve">        fcb   $3E</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="3"/>
-        <v>1B</v>
+        <v>0B</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="4"/>
-        <v>DA</v>
+        <v>3E</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D9</v>
+        <v xml:space="preserve">        fcb   $3E</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="3"/>
-        <v>1A</v>
+        <v>0C</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="4"/>
-        <v>D9</v>
+        <v>3E</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D8</v>
+        <v xml:space="preserve">        fcb   $3D</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="3"/>
-        <v>1A</v>
+        <v>0C</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="4"/>
-        <v>D8</v>
+        <v>3D</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $19</v>
+        <v xml:space="preserve">        fcb   $0D</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D7</v>
+        <v xml:space="preserve">        fcb   $3C</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>0D</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="4"/>
-        <v>D7</v>
+        <v>3C</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $18</v>
+        <v xml:space="preserve">        fcb   $0E</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D6</v>
+        <v xml:space="preserve">        fcb   $3C</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>0E</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="4"/>
-        <v>D6</v>
+        <v>3C</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $18</v>
+        <v xml:space="preserve">        fcb   $0F</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D5</v>
+        <v xml:space="preserve">        fcb   $3B</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>0F</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="4"/>
-        <v>D5</v>
+        <v>3B</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $17</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D4</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C23">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="4"/>
-        <v>D4</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D3</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C24">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="4"/>
-        <v>D3</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $11</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D2</v>
+        <v xml:space="preserve">        fcb   $39</v>
       </c>
       <c r="C25">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="4"/>
-        <v>D2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $15</v>
+        <v xml:space="preserve">        fcb   $12</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D1</v>
+        <v xml:space="preserve">        fcb   $38</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="4"/>
-        <v>D1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $14</v>
+        <v xml:space="preserve">        fcb   $13</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $D0</v>
+        <v xml:space="preserve">        fcb   $37</v>
       </c>
       <c r="C27">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="4"/>
-        <v>D0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,15 +1125,15 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CF</v>
+        <v xml:space="preserve">        fcb   $36</v>
       </c>
       <c r="C28">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="3"/>
@@ -1141,3309 +1141,3309 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="4"/>
-        <v>CF</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $13</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CF</v>
+        <v xml:space="preserve">        fcb   $35</v>
       </c>
       <c r="C29">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="4"/>
-        <v>CF</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $12</v>
+        <v xml:space="preserve">        fcb   $15</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CE</v>
+        <v xml:space="preserve">        fcb   $35</v>
       </c>
       <c r="C30">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="4"/>
-        <v>CE</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $11</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CD</v>
+        <v xml:space="preserve">        fcb   $34</v>
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="4"/>
-        <v>CD</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $10</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CC</v>
+        <v xml:space="preserve">        fcb   $33</v>
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="4"/>
-        <v>CC</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $10</v>
+        <v xml:space="preserve">        fcb   $17</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CC</v>
+        <v xml:space="preserve">        fcb   $31</v>
       </c>
       <c r="C33">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="4"/>
-        <v>CC</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0F</v>
+        <v xml:space="preserve">        fcb   $18</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CB</v>
+        <v xml:space="preserve">        fcb   $30</v>
       </c>
       <c r="C34">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="3"/>
-        <v>0F</v>
+        <v>18</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="4"/>
-        <v>CB</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0E</v>
+        <v xml:space="preserve">        fcb   $18</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CB</v>
+        <v xml:space="preserve">        fcb   $2F</v>
       </c>
       <c r="C35">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="3"/>
-        <v>0E</v>
+        <v>18</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="4"/>
-        <v>CB</v>
+        <v>2F</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0D</v>
+        <v xml:space="preserve">        fcb   $19</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CA</v>
+        <v xml:space="preserve">        fcb   $2E</v>
       </c>
       <c r="C36">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="3"/>
-        <v>0D</v>
+        <v>19</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="4"/>
-        <v>CA</v>
+        <v>2E</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C9</v>
+        <v xml:space="preserve">        fcb   $2D</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="3"/>
-        <v>0C</v>
+        <v>1A</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="4"/>
-        <v>C9</v>
+        <v>2D</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C9</v>
+        <v xml:space="preserve">        fcb   $2C</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="3"/>
-        <v>0C</v>
+        <v>1A</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="4"/>
-        <v>C9</v>
+        <v>2C</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0B</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $2B</v>
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="3"/>
-        <v>0B</v>
+        <v>1B</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>2B</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $0A</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $29</v>
       </c>
       <c r="C40">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="3"/>
-        <v>0A</v>
+        <v>1B</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $09</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $28</v>
       </c>
       <c r="C41">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="3"/>
-        <v>09</v>
+        <v>1C</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $08</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $27</v>
       </c>
       <c r="C42">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="3"/>
-        <v>08</v>
+        <v>1C</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $26</v>
       </c>
       <c r="C43">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="3"/>
-        <v>07</v>
+        <v>1D</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $24</v>
       </c>
       <c r="C44">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="3"/>
-        <v>07</v>
+        <v>1D</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $06</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="C45">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="3"/>
-        <v>06</v>
+        <v>1E</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $05</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="C46">
         <f t="shared" si="5"/>
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="3"/>
-        <v>05</v>
+        <v>1E</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $04</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="C47">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="3"/>
-        <v>04</v>
+        <v>1F</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $03</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="C48">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="3"/>
-        <v>03</v>
+        <v>1F</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>1F</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $02</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="C49">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="3"/>
-        <v>02</v>
+        <v>20</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>1D</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $01</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="C50">
         <f t="shared" si="5"/>
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="3"/>
-        <v>01</v>
+        <v>20</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>1C</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="C51">
         <f t="shared" si="5"/>
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>20</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>1A</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C5</v>
+        <v xml:space="preserve">        fcb   $19</v>
       </c>
       <c r="C52">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>21</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="4"/>
-        <v>C5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $17</v>
       </c>
       <c r="C53">
         <f t="shared" si="5"/>
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>21</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $FF</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="C54">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="3"/>
-        <v>FF</v>
+        <v>21</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $FE</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="C55">
         <f t="shared" si="5"/>
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="3"/>
-        <v>FE</v>
+        <v>22</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $FD</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $13</v>
       </c>
       <c r="C56">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="3"/>
-        <v>FD</v>
+        <v>22</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $FC</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $11</v>
       </c>
       <c r="C57">
         <f t="shared" si="5"/>
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="3"/>
-        <v>FC</v>
+        <v>22</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $FB</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="C58">
         <f t="shared" si="5"/>
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="3"/>
-        <v>FB</v>
+        <v>22</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $FA</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C6</v>
+        <v xml:space="preserve">        fcb   $0E</v>
       </c>
       <c r="C59">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="3"/>
-        <v>FA</v>
+        <v>23</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="4"/>
-        <v>C6</v>
+        <v>0E</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="C60">
         <f t="shared" si="5"/>
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="3"/>
-        <v>F9</v>
+        <v>23</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>0C</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $0B</v>
       </c>
       <c r="C61">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="3"/>
-        <v>F9</v>
+        <v>23</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>0B</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F8</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C7</v>
+        <v xml:space="preserve">        fcb   $09</v>
       </c>
       <c r="C62">
         <f t="shared" si="5"/>
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="3"/>
-        <v>F8</v>
+        <v>23</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="4"/>
-        <v>C7</v>
+        <v>09</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F7</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $08</v>
       </c>
       <c r="C63">
         <f t="shared" si="5"/>
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="3"/>
-        <v>F7</v>
+        <v>23</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>08</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F6</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $06</v>
       </c>
       <c r="C64">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="3"/>
-        <v>F6</v>
+        <v>23</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>06</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F5</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C8</v>
+        <v xml:space="preserve">        fcb   $04</v>
       </c>
       <c r="C65">
         <f t="shared" si="5"/>
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="3"/>
-        <v>F5</v>
+        <v>23</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="4"/>
-        <v>C8</v>
+        <v>04</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C9</v>
+        <v xml:space="preserve">        fcb   $03</v>
       </c>
       <c r="C66">
         <f t="shared" si="5"/>
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="3"/>
-        <v>F4</v>
+        <v>23</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="4"/>
-        <v>C9</v>
+        <v>03</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $C9</v>
+        <v xml:space="preserve">        fcb   $01</v>
       </c>
       <c r="C67">
         <f t="shared" si="5"/>
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="D67">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="3"/>
-        <v>F4</v>
+        <v>23</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="4"/>
-        <v>C9</v>
+        <v>01</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        fcb   $F3</v>
+        <v xml:space="preserve">        fcb   $24</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        fcb   $CA</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="C68">
         <f t="shared" si="5"/>
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D68">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="3"/>
-        <v>F3</v>
+        <v>24</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="4"/>
-        <v>CA</v>
+        <v>00</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A132" si="6">"        fcb   $"&amp;E69</f>
-        <v xml:space="preserve">        fcb   $F2</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" ref="B69:B132" si="7">"        fcb   $"&amp;F69</f>
-        <v xml:space="preserve">        fcb   $CB</v>
+        <v xml:space="preserve">        fcb   $FF</v>
       </c>
       <c r="C69">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="D69">
         <f t="shared" ref="D69:D132" si="8">IF(C69&gt;255,C69-256,C69)</f>
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ref="E69:E132" si="9">RIGHT(DEC2HEX($C$2*SIN(RADIANS(D69*(360/256))),2),2)</f>
-        <v>F2</v>
+        <v>23</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ref="F69:F132" si="10">RIGHT(DEC2HEX($E$2*COS(RADIANS(C69*(360/256))),2),2)</f>
-        <v>CB</v>
+        <v>FF</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F1</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CB</v>
+        <v xml:space="preserve">        fcb   $FD</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:C133" si="11">C69+1</f>
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="D70">
         <f t="shared" si="8"/>
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="9"/>
-        <v>F1</v>
+        <v>23</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="10"/>
-        <v>CB</v>
+        <v>FD</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F0</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CC</v>
+        <v xml:space="preserve">        fcb   $FC</v>
       </c>
       <c r="C71">
         <f t="shared" si="11"/>
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D71">
         <f t="shared" si="8"/>
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="9"/>
-        <v>F0</v>
+        <v>23</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="10"/>
-        <v>CC</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $F0</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CC</v>
+        <v xml:space="preserve">        fcb   $FA</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="D72">
         <f t="shared" si="8"/>
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="9"/>
-        <v>F0</v>
+        <v>23</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="10"/>
-        <v>CC</v>
+        <v>FA</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EF</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CD</v>
+        <v xml:space="preserve">        fcb   $F8</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D73">
         <f t="shared" si="8"/>
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="9"/>
-        <v>EF</v>
+        <v>23</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="10"/>
-        <v>CD</v>
+        <v>F8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EE</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CE</v>
+        <v xml:space="preserve">        fcb   $F7</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D74">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="9"/>
-        <v>EE</v>
+        <v>23</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="10"/>
-        <v>CE</v>
+        <v>F7</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $ED</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CF</v>
+        <v xml:space="preserve">        fcb   $F5</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D75">
         <f t="shared" si="8"/>
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="9"/>
-        <v>ED</v>
+        <v>23</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="10"/>
-        <v>CF</v>
+        <v>F5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EC</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $CF</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="9"/>
-        <v>EC</v>
+        <v>23</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="10"/>
-        <v>CF</v>
+        <v>F4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EC</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D0</v>
+        <v xml:space="preserve">        fcb   $F2</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="D77">
         <f t="shared" si="8"/>
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="9"/>
-        <v>EC</v>
+        <v>23</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="10"/>
-        <v>D0</v>
+        <v>F2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EB</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D1</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="D78">
         <f t="shared" si="8"/>
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="9"/>
-        <v>EB</v>
+        <v>22</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="10"/>
-        <v>D1</v>
+        <v>F0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D2</v>
+        <v xml:space="preserve">        fcb   $EF</v>
       </c>
       <c r="C79">
         <f t="shared" si="11"/>
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="9"/>
-        <v>EA</v>
+        <v>22</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="10"/>
-        <v>D2</v>
+        <v>EF</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D3</v>
+        <v xml:space="preserve">        fcb   $ED</v>
       </c>
       <c r="C80">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="9"/>
-        <v>EA</v>
+        <v>22</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="10"/>
-        <v>D3</v>
+        <v>ED</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E9</v>
+        <v xml:space="preserve">        fcb   $22</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D4</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="C81">
         <f t="shared" si="11"/>
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="9"/>
-        <v>E9</v>
+        <v>22</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="10"/>
-        <v>D4</v>
+        <v>EC</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E8</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D5</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="C82">
         <f t="shared" si="11"/>
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="D82">
         <f t="shared" si="8"/>
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="9"/>
-        <v>E8</v>
+        <v>21</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="10"/>
-        <v>D5</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E8</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D6</v>
+        <v xml:space="preserve">        fcb   $E9</v>
       </c>
       <c r="C83">
         <f t="shared" si="11"/>
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="D83">
         <f t="shared" si="8"/>
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="9"/>
-        <v>E8</v>
+        <v>21</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="10"/>
-        <v>D6</v>
+        <v>E9</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E7</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D7</v>
+        <v xml:space="preserve">        fcb   $E7</v>
       </c>
       <c r="C84">
         <f t="shared" si="11"/>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D84">
         <f t="shared" si="8"/>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="9"/>
-        <v>E7</v>
+        <v>21</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="10"/>
-        <v>D7</v>
+        <v>E7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D8</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="C85">
         <f t="shared" si="11"/>
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D85">
         <f t="shared" si="8"/>
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="9"/>
-        <v>E6</v>
+        <v>20</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="10"/>
-        <v>D8</v>
+        <v>E6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $D9</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="C86">
         <f t="shared" si="11"/>
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="D86">
         <f t="shared" si="8"/>
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="9"/>
-        <v>E6</v>
+        <v>20</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="10"/>
-        <v>D9</v>
+        <v>E4</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DA</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="C87">
         <f t="shared" si="11"/>
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="D87">
         <f t="shared" si="8"/>
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="9"/>
-        <v>E5</v>
+        <v>20</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="10"/>
-        <v>DA</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DB</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="C88">
         <f t="shared" si="11"/>
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="D88">
         <f t="shared" si="8"/>
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="9"/>
-        <v>E5</v>
+        <v>1F</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="10"/>
-        <v>DB</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E4</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DC</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="C89">
         <f t="shared" si="11"/>
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D89">
         <f t="shared" si="8"/>
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="9"/>
-        <v>E4</v>
+        <v>1F</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="10"/>
-        <v>DC</v>
+        <v>E0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E4</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="C90">
         <f t="shared" si="11"/>
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="D90">
         <f t="shared" si="8"/>
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="9"/>
-        <v>E4</v>
+        <v>1E</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="10"/>
-        <v>DD</v>
+        <v>DF</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $1E</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="C91">
         <f t="shared" si="11"/>
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="D91">
         <f t="shared" si="8"/>
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="9"/>
-        <v>E3</v>
+        <v>1E</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="10"/>
-        <v>DF</v>
+        <v>DD</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $DC</v>
       </c>
       <c r="C92">
         <f t="shared" si="11"/>
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="D92">
         <f t="shared" si="8"/>
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="9"/>
-        <v>E3</v>
+        <v>1D</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="10"/>
-        <v>E0</v>
+        <v>DC</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $DA</v>
       </c>
       <c r="C93">
         <f t="shared" si="11"/>
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D93">
         <f t="shared" si="8"/>
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="9"/>
-        <v>E2</v>
+        <v>1D</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="10"/>
-        <v>E1</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $D9</v>
       </c>
       <c r="C94">
         <f t="shared" si="11"/>
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="D94">
         <f t="shared" si="8"/>
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="9"/>
-        <v>E2</v>
+        <v>1C</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="10"/>
-        <v>E2</v>
+        <v>D9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $D8</v>
       </c>
       <c r="C95">
         <f t="shared" si="11"/>
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="D95">
         <f t="shared" si="8"/>
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="9"/>
-        <v>E1</v>
+        <v>1C</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="10"/>
-        <v>E3</v>
+        <v>D8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $D7</v>
       </c>
       <c r="C96">
         <f t="shared" si="11"/>
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="D96">
         <f t="shared" si="8"/>
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="9"/>
-        <v>E1</v>
+        <v>1B</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="10"/>
-        <v>E5</v>
+        <v>D7</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $1B</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $D5</v>
       </c>
       <c r="C97">
         <f t="shared" si="11"/>
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="D97">
         <f t="shared" si="8"/>
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="9"/>
-        <v>E0</v>
+        <v>1B</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="10"/>
-        <v>E6</v>
+        <v>D5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E7</v>
+        <v xml:space="preserve">        fcb   $D4</v>
       </c>
       <c r="C98">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="D98">
         <f t="shared" si="8"/>
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="9"/>
-        <v>E0</v>
+        <v>1A</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="10"/>
-        <v>E7</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $E9</v>
+        <v xml:space="preserve">        fcb   $D3</v>
       </c>
       <c r="C99">
         <f t="shared" si="11"/>
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="D99">
         <f t="shared" si="8"/>
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="9"/>
-        <v>E0</v>
+        <v>1A</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="10"/>
-        <v>E9</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $19</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $D2</v>
       </c>
       <c r="C100">
         <f t="shared" si="11"/>
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="D100">
         <f t="shared" si="8"/>
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>19</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="10"/>
-        <v>EA</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $18</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $EB</v>
+        <v xml:space="preserve">        fcb   $D1</v>
       </c>
       <c r="C101">
         <f t="shared" si="11"/>
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="D101">
         <f t="shared" si="8"/>
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>18</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="10"/>
-        <v>EB</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $18</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $ED</v>
+        <v xml:space="preserve">        fcb   $D0</v>
       </c>
       <c r="C102">
         <f t="shared" si="11"/>
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="D102">
         <f t="shared" si="8"/>
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>18</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="10"/>
-        <v>ED</v>
+        <v>D0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $17</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $EE</v>
+        <v xml:space="preserve">        fcb   $CF</v>
       </c>
       <c r="C103">
         <f t="shared" si="11"/>
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="D103">
         <f t="shared" si="8"/>
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>17</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="10"/>
-        <v>EE</v>
+        <v>CF</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $EF</v>
+        <v xml:space="preserve">        fcb   $CD</v>
       </c>
       <c r="C104">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D104">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>16</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="10"/>
-        <v>EF</v>
+        <v>CD</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F1</v>
+        <v xml:space="preserve">        fcb   $CC</v>
       </c>
       <c r="C105">
         <f t="shared" si="11"/>
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="D105">
         <f t="shared" si="8"/>
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>16</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="10"/>
-        <v>F1</v>
+        <v>CC</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $15</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F2</v>
+        <v xml:space="preserve">        fcb   $CB</v>
       </c>
       <c r="C106">
         <f t="shared" si="11"/>
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="D106">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>15</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="10"/>
-        <v>F2</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $CB</v>
       </c>
       <c r="C107">
         <f t="shared" si="11"/>
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="D107">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>14</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="10"/>
-        <v>F4</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F5</v>
+        <v xml:space="preserve">        fcb   $CA</v>
       </c>
       <c r="C108">
         <f t="shared" si="11"/>
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="D108">
         <f t="shared" si="8"/>
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>14</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="10"/>
-        <v>F5</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $13</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F6</v>
+        <v xml:space="preserve">        fcb   $C9</v>
       </c>
       <c r="C109">
         <f t="shared" si="11"/>
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="D109">
         <f t="shared" si="8"/>
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>13</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="10"/>
-        <v>F6</v>
+        <v>C9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $12</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F8</v>
+        <v xml:space="preserve">        fcb   $C8</v>
       </c>
       <c r="C110">
         <f t="shared" si="11"/>
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="D110">
         <f t="shared" si="8"/>
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>12</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="10"/>
-        <v>F8</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $11</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $C7</v>
       </c>
       <c r="C111">
         <f t="shared" si="11"/>
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="D111">
         <f t="shared" si="8"/>
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>11</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="10"/>
-        <v>F9</v>
+        <v>C7</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $FB</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C112">
         <f t="shared" si="11"/>
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="D112">
         <f t="shared" si="8"/>
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>10</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="10"/>
-        <v>FB</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $FC</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C113">
         <f t="shared" si="11"/>
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="D113">
         <f t="shared" si="8"/>
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>10</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="10"/>
-        <v>FC</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $0F</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $FE</v>
+        <v xml:space="preserve">        fcb   $C5</v>
       </c>
       <c r="C114">
         <f t="shared" si="11"/>
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="D114">
         <f t="shared" si="8"/>
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>0F</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="10"/>
-        <v>FE</v>
+        <v>C5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $0E</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $FF</v>
+        <v xml:space="preserve">        fcb   $C4</v>
       </c>
       <c r="C115">
         <f t="shared" si="11"/>
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="D115">
         <f t="shared" si="8"/>
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>0E</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="10"/>
-        <v>FF</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DC</v>
+        <v xml:space="preserve">        fcb   $0D</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $C4</v>
       </c>
       <c r="C116">
         <f t="shared" si="11"/>
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="D116">
         <f t="shared" si="8"/>
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="9"/>
-        <v>DC</v>
+        <v>0D</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $01</v>
+        <v xml:space="preserve">        fcb   $C3</v>
       </c>
       <c r="C117">
         <f t="shared" si="11"/>
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="D117">
         <f t="shared" si="8"/>
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>0C</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="10"/>
-        <v>01</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $02</v>
+        <v xml:space="preserve">        fcb   $C2</v>
       </c>
       <c r="C118">
         <f t="shared" si="11"/>
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="D118">
         <f t="shared" si="8"/>
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>0C</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="10"/>
-        <v>02</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $0B</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $04</v>
+        <v xml:space="preserve">        fcb   $C2</v>
       </c>
       <c r="C119">
         <f t="shared" si="11"/>
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="D119">
         <f t="shared" si="8"/>
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>0B</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="10"/>
-        <v>04</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $0A</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $05</v>
+        <v xml:space="preserve">        fcb   $C1</v>
       </c>
       <c r="C120">
         <f t="shared" si="11"/>
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="D120">
         <f t="shared" si="8"/>
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>0A</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="10"/>
-        <v>05</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $09</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $C1</v>
       </c>
       <c r="C121">
         <f t="shared" si="11"/>
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="D121">
         <f t="shared" si="8"/>
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>09</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="10"/>
-        <v>07</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $08</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $08</v>
+        <v xml:space="preserve">        fcb   $C0</v>
       </c>
       <c r="C122">
         <f t="shared" si="11"/>
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D122">
         <f t="shared" si="8"/>
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>08</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="10"/>
-        <v>08</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $0A</v>
+        <v xml:space="preserve">        fcb   $C0</v>
       </c>
       <c r="C123">
         <f t="shared" si="11"/>
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D123">
         <f t="shared" si="8"/>
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>07</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="10"/>
-        <v>0A</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $07</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $0B</v>
+        <v xml:space="preserve">        fcb   $C0</v>
       </c>
       <c r="C124">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D124">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>07</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="10"/>
-        <v>0B</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DD</v>
+        <v xml:space="preserve">        fcb   $06</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C125">
         <f t="shared" si="11"/>
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="D125">
         <f t="shared" si="8"/>
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="9"/>
-        <v>DD</v>
+        <v>06</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="10"/>
-        <v>0C</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $05</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $0E</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C126">
         <f t="shared" si="11"/>
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="D126">
         <f t="shared" si="8"/>
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>05</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="10"/>
-        <v>0E</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $04</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $0F</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C127">
         <f t="shared" si="11"/>
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="D127">
         <f t="shared" si="8"/>
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>04</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="10"/>
-        <v>0F</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $03</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $11</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C128">
         <f t="shared" si="11"/>
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="D128">
         <f t="shared" si="8"/>
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>03</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DE</v>
+        <v xml:space="preserve">        fcb   $02</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $12</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C129">
         <f t="shared" si="11"/>
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D129">
         <f t="shared" si="8"/>
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="9"/>
-        <v>DE</v>
+        <v>02</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $01</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $13</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C130">
         <f t="shared" si="11"/>
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="D130">
         <f t="shared" si="8"/>
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>01</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $15</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C131">
         <f t="shared" si="11"/>
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D131">
         <f t="shared" si="8"/>
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>00</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">        fcb   $DF</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $BE</v>
       </c>
       <c r="C132">
         <f t="shared" si="11"/>
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="D132">
         <f t="shared" si="8"/>
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="9"/>
-        <v>DF</v>
+        <v>00</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>BE</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f t="shared" ref="A133:A196" si="12">"        fcb   $"&amp;E133</f>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" ref="B133:B196" si="13">"        fcb   $"&amp;F133</f>
-        <v xml:space="preserve">        fcb   $17</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C133">
         <f t="shared" si="11"/>
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="D133">
         <f t="shared" ref="D133:D196" si="14">IF(C133&gt;255,C133-256,C133)</f>
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" ref="E133:E196" si="15">RIGHT(DEC2HEX($C$2*SIN(RADIANS(D133*(360/256))),2),2)</f>
-        <v>E0</v>
+        <v>00</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" ref="F133:F196" si="16">RIGHT(DEC2HEX($E$2*COS(RADIANS(C133*(360/256))),2),2)</f>
-        <v>17</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $FF</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $19</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C134">
         <f t="shared" ref="C134:C197" si="17">C133+1</f>
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="D134">
         <f t="shared" si="14"/>
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="15"/>
-        <v>E0</v>
+        <v>FF</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E0</v>
+        <v xml:space="preserve">        fcb   $FE</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C135">
         <f t="shared" si="17"/>
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="D135">
         <f t="shared" si="14"/>
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="15"/>
-        <v>E0</v>
+        <v>FE</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="16"/>
-        <v>1A</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $FD</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C136">
         <f t="shared" si="17"/>
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="D136">
         <f t="shared" si="14"/>
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="15"/>
-        <v>E1</v>
+        <v>FD</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="16"/>
-        <v>1B</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E1</v>
+        <v xml:space="preserve">        fcb   $FC</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C137">
         <f t="shared" si="17"/>
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="D137">
         <f t="shared" si="14"/>
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="15"/>
-        <v>E1</v>
+        <v>FC</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="16"/>
-        <v>1D</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $FB</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C138">
         <f t="shared" si="17"/>
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="D138">
         <f t="shared" si="14"/>
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="15"/>
-        <v>E2</v>
+        <v>FB</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="16"/>
-        <v>1E</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E2</v>
+        <v xml:space="preserve">        fcb   $FA</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $BF</v>
       </c>
       <c r="C139">
         <f t="shared" si="17"/>
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="D139">
         <f t="shared" si="14"/>
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="15"/>
-        <v>E2</v>
+        <v>FA</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="16"/>
-        <v>1F</v>
+        <v>BF</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $C0</v>
       </c>
       <c r="C140">
         <f t="shared" si="17"/>
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="D140">
         <f t="shared" si="14"/>
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="15"/>
-        <v>E3</v>
+        <v>F9</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E3</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $C0</v>
       </c>
       <c r="C141">
         <f t="shared" si="17"/>
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="D141">
         <f t="shared" si="14"/>
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="15"/>
-        <v>E3</v>
+        <v>F9</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="16"/>
-        <v>21</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E4</v>
+        <v xml:space="preserve">        fcb   $F8</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $C0</v>
       </c>
       <c r="C142">
         <f t="shared" si="17"/>
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="D142">
         <f t="shared" si="14"/>
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="15"/>
-        <v>E4</v>
+        <v>F8</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="16"/>
-        <v>23</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E4</v>
+        <v xml:space="preserve">        fcb   $F7</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $24</v>
+        <v xml:space="preserve">        fcb   $C1</v>
       </c>
       <c r="C143">
         <f t="shared" si="17"/>
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="D143">
         <f t="shared" si="14"/>
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="15"/>
-        <v>E4</v>
+        <v>F7</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $F6</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $25</v>
+        <v xml:space="preserve">        fcb   $C1</v>
       </c>
       <c r="C144">
         <f t="shared" si="17"/>
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="D144">
         <f t="shared" si="14"/>
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="15"/>
-        <v>E5</v>
+        <v>F6</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>C1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E5</v>
+        <v xml:space="preserve">        fcb   $F5</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $26</v>
+        <v xml:space="preserve">        fcb   $C2</v>
       </c>
       <c r="C145">
         <f t="shared" si="17"/>
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="D145">
         <f t="shared" si="14"/>
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="15"/>
-        <v>E5</v>
+        <v>F5</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="16"/>
-        <v>26</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $27</v>
+        <v xml:space="preserve">        fcb   $C2</v>
       </c>
       <c r="C146">
         <f t="shared" si="17"/>
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="D146">
         <f t="shared" si="14"/>
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="15"/>
-        <v>E6</v>
+        <v>F4</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E6</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $28</v>
+        <v xml:space="preserve">        fcb   $C3</v>
       </c>
       <c r="C147">
         <f t="shared" si="17"/>
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="D147">
         <f t="shared" si="14"/>
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="15"/>
-        <v>E6</v>
+        <v>F4</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="16"/>
-        <v>28</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E7</v>
+        <v xml:space="preserve">        fcb   $F3</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $29</v>
+        <v xml:space="preserve">        fcb   $C4</v>
       </c>
       <c r="C148">
         <f t="shared" si="17"/>
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="D148">
         <f t="shared" si="14"/>
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="15"/>
-        <v>E7</v>
+        <v>F3</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="16"/>
-        <v>29</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E8</v>
+        <v xml:space="preserve">        fcb   $F2</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2A</v>
+        <v xml:space="preserve">        fcb   $C4</v>
       </c>
       <c r="C149">
         <f t="shared" si="17"/>
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="D149">
         <f t="shared" si="14"/>
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="15"/>
-        <v>E8</v>
+        <v>F2</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="16"/>
-        <v>2A</v>
+        <v>C4</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E8</v>
+        <v xml:space="preserve">        fcb   $F1</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2B</v>
+        <v xml:space="preserve">        fcb   $C5</v>
       </c>
       <c r="C150">
         <f t="shared" si="17"/>
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="D150">
         <f t="shared" si="14"/>
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="15"/>
-        <v>E8</v>
+        <v>F1</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="16"/>
-        <v>2B</v>
+        <v>C5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $E9</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2C</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C151">
         <f t="shared" si="17"/>
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="D151">
         <f t="shared" si="14"/>
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="15"/>
-        <v>E9</v>
+        <v>F0</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="16"/>
-        <v>2C</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2D</v>
+        <v xml:space="preserve">        fcb   $C6</v>
       </c>
       <c r="C152">
         <f t="shared" si="17"/>
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="D152">
         <f t="shared" si="14"/>
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="15"/>
-        <v>EA</v>
+        <v>F0</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="16"/>
-        <v>2D</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EA</v>
+        <v xml:space="preserve">        fcb   $EF</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2E</v>
+        <v xml:space="preserve">        fcb   $C7</v>
       </c>
       <c r="C153">
         <f t="shared" si="17"/>
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="D153">
         <f t="shared" si="14"/>
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="15"/>
-        <v>EA</v>
+        <v>EF</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="16"/>
-        <v>2E</v>
+        <v>C7</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EB</v>
+        <v xml:space="preserve">        fcb   $EE</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $2F</v>
+        <v xml:space="preserve">        fcb   $C8</v>
       </c>
       <c r="C154">
         <f t="shared" si="17"/>
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="D154">
         <f t="shared" si="14"/>
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="15"/>
-        <v>EB</v>
+        <v>EE</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="16"/>
-        <v>2F</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EC</v>
+        <v xml:space="preserve">        fcb   $ED</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $30</v>
+        <v xml:space="preserve">        fcb   $C9</v>
       </c>
       <c r="C155">
         <f t="shared" si="17"/>
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="D155">
         <f t="shared" si="14"/>
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="15"/>
-        <v>EC</v>
+        <v>ED</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
+        <v>C9</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4453,15 +4453,15 @@
       </c>
       <c r="B156" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $31</v>
+        <v xml:space="preserve">        fcb   $CA</v>
       </c>
       <c r="C156">
         <f t="shared" si="17"/>
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="D156">
         <f t="shared" si="14"/>
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="15"/>
@@ -4469,2685 +4469,2685 @@
       </c>
       <c r="F156" t="str">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $ED</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $31</v>
+        <v xml:space="preserve">        fcb   $CB</v>
       </c>
       <c r="C157">
         <f t="shared" si="17"/>
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="D157">
         <f t="shared" si="14"/>
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="15"/>
-        <v>ED</v>
+        <v>EC</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EE</v>
+        <v xml:space="preserve">        fcb   $EB</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $32</v>
+        <v xml:space="preserve">        fcb   $CB</v>
       </c>
       <c r="C158">
         <f t="shared" si="17"/>
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="D158">
         <f t="shared" si="14"/>
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="15"/>
-        <v>EE</v>
+        <v>EB</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $EF</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $33</v>
+        <v xml:space="preserve">        fcb   $CC</v>
       </c>
       <c r="C159">
         <f t="shared" si="17"/>
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="D159">
         <f t="shared" si="14"/>
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="15"/>
-        <v>EF</v>
+        <v>EA</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="16"/>
-        <v>33</v>
+        <v>CC</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F0</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $34</v>
+        <v xml:space="preserve">        fcb   $CD</v>
       </c>
       <c r="C160">
         <f t="shared" si="17"/>
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="D160">
         <f t="shared" si="14"/>
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="15"/>
-        <v>F0</v>
+        <v>EA</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="16"/>
-        <v>34</v>
+        <v>CD</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F0</v>
+        <v xml:space="preserve">        fcb   $E9</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $34</v>
+        <v xml:space="preserve">        fcb   $CF</v>
       </c>
       <c r="C161">
         <f t="shared" si="17"/>
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="D161">
         <f t="shared" si="14"/>
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="15"/>
-        <v>F0</v>
+        <v>E9</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="16"/>
-        <v>34</v>
+        <v>CF</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F1</v>
+        <v xml:space="preserve">        fcb   $E8</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $35</v>
+        <v xml:space="preserve">        fcb   $D0</v>
       </c>
       <c r="C162">
         <f t="shared" si="17"/>
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="D162">
         <f t="shared" si="14"/>
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="15"/>
-        <v>F1</v>
+        <v>E8</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="16"/>
-        <v>35</v>
+        <v>D0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F2</v>
+        <v xml:space="preserve">        fcb   $E8</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $35</v>
+        <v xml:space="preserve">        fcb   $D1</v>
       </c>
       <c r="C163">
         <f t="shared" si="17"/>
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D163">
         <f t="shared" si="14"/>
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="15"/>
-        <v>F2</v>
+        <v>E8</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="16"/>
-        <v>35</v>
+        <v>D1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F3</v>
+        <v xml:space="preserve">        fcb   $E7</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $36</v>
+        <v xml:space="preserve">        fcb   $D2</v>
       </c>
       <c r="C164">
         <f t="shared" si="17"/>
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="D164">
         <f t="shared" si="14"/>
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="15"/>
-        <v>F3</v>
+        <v>E7</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="16"/>
-        <v>36</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $37</v>
+        <v xml:space="preserve">        fcb   $D3</v>
       </c>
       <c r="C165">
         <f t="shared" si="17"/>
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="D165">
         <f t="shared" si="14"/>
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="15"/>
-        <v>F4</v>
+        <v>E6</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="16"/>
-        <v>37</v>
+        <v>D3</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $37</v>
+        <v xml:space="preserve">        fcb   $D4</v>
       </c>
       <c r="C166">
         <f t="shared" si="17"/>
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="D166">
         <f t="shared" si="14"/>
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="15"/>
-        <v>F4</v>
+        <v>E6</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="16"/>
-        <v>37</v>
+        <v>D4</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F5</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $D5</v>
       </c>
       <c r="C167">
         <f t="shared" si="17"/>
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="D167">
         <f t="shared" si="14"/>
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="15"/>
-        <v>F5</v>
+        <v>E5</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>D5</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F6</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $D7</v>
       </c>
       <c r="C168">
         <f t="shared" si="17"/>
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="D168">
         <f t="shared" si="14"/>
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="15"/>
-        <v>F6</v>
+        <v>E5</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>D7</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F7</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $D8</v>
       </c>
       <c r="C169">
         <f t="shared" si="17"/>
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="D169">
         <f t="shared" si="14"/>
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="15"/>
-        <v>F7</v>
+        <v>E4</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>D8</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F8</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $D9</v>
       </c>
       <c r="C170">
         <f t="shared" si="17"/>
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="D170">
         <f t="shared" si="14"/>
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="15"/>
-        <v>F8</v>
+        <v>E4</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>D9</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $DA</v>
       </c>
       <c r="C171">
         <f t="shared" si="17"/>
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="D171">
         <f t="shared" si="14"/>
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="15"/>
-        <v>F9</v>
+        <v>E3</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $DC</v>
       </c>
       <c r="C172">
         <f t="shared" si="17"/>
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="D172">
         <f t="shared" si="14"/>
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="15"/>
-        <v>F9</v>
+        <v>E3</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>DC</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FA</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="C173">
         <f t="shared" si="17"/>
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="D173">
         <f t="shared" si="14"/>
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="15"/>
-        <v>FA</v>
+        <v>E2</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>DD</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FB</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="C174">
         <f t="shared" si="17"/>
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="D174">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="15"/>
-        <v>FB</v>
+        <v>E2</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>DF</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FC</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="C175">
         <f t="shared" si="17"/>
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="D175">
         <f t="shared" si="14"/>
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="15"/>
-        <v>FC</v>
+        <v>E1</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>E0</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FD</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="C176">
         <f t="shared" si="17"/>
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="D176">
         <f t="shared" si="14"/>
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="15"/>
-        <v>FD</v>
+        <v>E1</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FE</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="C177">
         <f t="shared" si="17"/>
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="D177">
         <f t="shared" si="14"/>
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="15"/>
-        <v>FE</v>
+        <v>E0</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $FF</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="C178">
         <f t="shared" si="17"/>
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="D178">
         <f t="shared" si="14"/>
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="15"/>
-        <v>FF</v>
+        <v>E0</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>E4</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="C179">
         <f t="shared" si="17"/>
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="D179">
         <f t="shared" si="14"/>
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="15"/>
-        <v>00</v>
+        <v>E0</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>E6</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3B</v>
+        <v xml:space="preserve">        fcb   $E7</v>
       </c>
       <c r="C180">
         <f t="shared" si="17"/>
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="D180">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="15"/>
-        <v>00</v>
+        <v>DF</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="16"/>
-        <v>3B</v>
+        <v>E7</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $E9</v>
       </c>
       <c r="C181">
         <f t="shared" si="17"/>
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="D181">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="15"/>
-        <v>00</v>
+        <v>DF</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>E9</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $01</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="C182">
         <f t="shared" si="17"/>
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="D182">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="15"/>
-        <v>01</v>
+        <v>DF</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $02</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="C183">
         <f t="shared" si="17"/>
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="D183">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="15"/>
-        <v>02</v>
+        <v>DE</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>EC</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $03</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $ED</v>
       </c>
       <c r="C184">
         <f t="shared" si="17"/>
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="D184">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="15"/>
-        <v>03</v>
+        <v>DE</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>ED</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $04</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $EF</v>
       </c>
       <c r="C185">
         <f t="shared" si="17"/>
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="D185">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="15"/>
-        <v>04</v>
+        <v>DE</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>EF</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $05</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="C186">
         <f t="shared" si="17"/>
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="D186">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="15"/>
-        <v>05</v>
+        <v>DE</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>F0</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $06</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $3A</v>
+        <v xml:space="preserve">        fcb   $F2</v>
       </c>
       <c r="C187">
         <f t="shared" si="17"/>
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="D187">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="15"/>
-        <v>06</v>
+        <v>DD</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="16"/>
-        <v>3A</v>
+        <v>F2</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="C188">
         <f t="shared" si="17"/>
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="D188">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="15"/>
-        <v>07</v>
+        <v>DD</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>F4</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $F5</v>
       </c>
       <c r="C189">
         <f t="shared" si="17"/>
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="D189">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="15"/>
-        <v>07</v>
+        <v>DD</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>F5</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $08</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $39</v>
+        <v xml:space="preserve">        fcb   $F7</v>
       </c>
       <c r="C190">
         <f t="shared" si="17"/>
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="D190">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="15"/>
-        <v>08</v>
+        <v>DD</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>F7</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $09</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $F8</v>
       </c>
       <c r="C191">
         <f t="shared" si="17"/>
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="D191">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="15"/>
-        <v>09</v>
+        <v>DD</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>F8</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $0A</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $FA</v>
       </c>
       <c r="C192">
         <f t="shared" si="17"/>
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="D192">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="15"/>
-        <v>0A</v>
+        <v>DD</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>FA</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $0B</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $38</v>
+        <v xml:space="preserve">        fcb   $FC</v>
       </c>
       <c r="C193">
         <f t="shared" si="17"/>
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="D193">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="15"/>
-        <v>0B</v>
+        <v>DD</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="16"/>
-        <v>38</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $37</v>
+        <v xml:space="preserve">        fcb   $FD</v>
       </c>
       <c r="C194">
         <f t="shared" si="17"/>
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="D194">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="15"/>
-        <v>0C</v>
+        <v>DD</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="16"/>
-        <v>37</v>
+        <v>FD</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $37</v>
+        <v xml:space="preserve">        fcb   $FF</v>
       </c>
       <c r="C195">
         <f t="shared" si="17"/>
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="D195">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="15"/>
-        <v>0C</v>
+        <v>DD</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" si="16"/>
-        <v>37</v>
+        <v>FF</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">        fcb   $0D</v>
+        <v xml:space="preserve">        fcb   $DC</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        fcb   $36</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="C196">
         <f t="shared" si="17"/>
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="D196">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="15"/>
-        <v>0D</v>
+        <v>DC</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="16"/>
-        <v>36</v>
+        <v>00</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
         <f t="shared" ref="A197:A259" si="18">"        fcb   $"&amp;E197</f>
-        <v xml:space="preserve">        fcb   $0E</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" ref="B197:B259" si="19">"        fcb   $"&amp;F197</f>
-        <v xml:space="preserve">        fcb   $35</v>
+        <v xml:space="preserve">        fcb   $01</v>
       </c>
       <c r="C197">
         <f t="shared" si="17"/>
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="D197">
         <f t="shared" ref="D197:D259" si="20">IF(C197&gt;255,C197-256,C197)</f>
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" ref="E197:E259" si="21">RIGHT(DEC2HEX($C$2*SIN(RADIANS(D197*(360/256))),2),2)</f>
-        <v>0E</v>
+        <v>DD</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" ref="F197:F259" si="22">RIGHT(DEC2HEX($E$2*COS(RADIANS(C197*(360/256))),2),2)</f>
-        <v>35</v>
+        <v>01</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $0F</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $35</v>
+        <v xml:space="preserve">        fcb   $03</v>
       </c>
       <c r="C198">
         <f t="shared" ref="C198:C259" si="23">C197+1</f>
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="D198">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="21"/>
-        <v>0F</v>
+        <v>DD</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="22"/>
-        <v>35</v>
+        <v>03</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $10</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $34</v>
+        <v xml:space="preserve">        fcb   $04</v>
       </c>
       <c r="C199">
         <f t="shared" si="23"/>
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="D199">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>DD</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="22"/>
-        <v>34</v>
+        <v>04</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $10</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $34</v>
+        <v xml:space="preserve">        fcb   $06</v>
       </c>
       <c r="C200">
         <f t="shared" si="23"/>
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="D200">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>DD</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="22"/>
-        <v>34</v>
+        <v>06</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $11</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $33</v>
+        <v xml:space="preserve">        fcb   $08</v>
       </c>
       <c r="C201">
         <f t="shared" si="23"/>
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="D201">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>DD</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>08</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $12</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $32</v>
+        <v xml:space="preserve">        fcb   $09</v>
       </c>
       <c r="C202">
         <f t="shared" si="23"/>
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="D202">
         <f t="shared" si="20"/>
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>DD</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="22"/>
-        <v>32</v>
+        <v>09</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $13</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $31</v>
+        <v xml:space="preserve">        fcb   $0B</v>
       </c>
       <c r="C203">
         <f t="shared" si="23"/>
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="D203">
         <f t="shared" si="20"/>
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>DD</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>0B</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $14</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $31</v>
+        <v xml:space="preserve">        fcb   $0C</v>
       </c>
       <c r="C204">
         <f t="shared" si="23"/>
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="D204">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>DD</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>0C</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $14</v>
+        <v xml:space="preserve">        fcb   $DD</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $30</v>
+        <v xml:space="preserve">        fcb   $0E</v>
       </c>
       <c r="C205">
         <f t="shared" si="23"/>
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="D205">
         <f t="shared" si="20"/>
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>DD</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>0E</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $15</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2F</v>
+        <v xml:space="preserve">        fcb   $10</v>
       </c>
       <c r="C206">
         <f t="shared" si="23"/>
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="D206">
         <f t="shared" si="20"/>
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>DE</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="22"/>
-        <v>2F</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2E</v>
+        <v xml:space="preserve">        fcb   $11</v>
       </c>
       <c r="C207">
         <f t="shared" si="23"/>
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="D207">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>DE</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="22"/>
-        <v>2E</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2D</v>
+        <v xml:space="preserve">        fcb   $13</v>
       </c>
       <c r="C208">
         <f t="shared" si="23"/>
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="D208">
         <f t="shared" si="20"/>
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>DE</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="22"/>
-        <v>2D</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $17</v>
+        <v xml:space="preserve">        fcb   $DE</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2C</v>
+        <v xml:space="preserve">        fcb   $14</v>
       </c>
       <c r="C209">
         <f t="shared" si="23"/>
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="D209">
         <f t="shared" si="20"/>
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>DE</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="22"/>
-        <v>2C</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $18</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2B</v>
+        <v xml:space="preserve">        fcb   $16</v>
       </c>
       <c r="C210">
         <f t="shared" si="23"/>
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="D210">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>DF</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="22"/>
-        <v>2B</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $18</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $2A</v>
+        <v xml:space="preserve">        fcb   $17</v>
       </c>
       <c r="C211">
         <f t="shared" si="23"/>
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="D211">
         <f t="shared" si="20"/>
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>DF</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="22"/>
-        <v>2A</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $19</v>
+        <v xml:space="preserve">        fcb   $DF</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $29</v>
+        <v xml:space="preserve">        fcb   $19</v>
       </c>
       <c r="C212">
         <f t="shared" si="23"/>
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="D212">
         <f t="shared" si="20"/>
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>DF</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $28</v>
+        <v xml:space="preserve">        fcb   $1A</v>
       </c>
       <c r="C213">
         <f t="shared" si="23"/>
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="D213">
         <f t="shared" si="20"/>
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="21"/>
-        <v>1A</v>
+        <v>E0</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="22"/>
-        <v>28</v>
+        <v>1A</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $27</v>
+        <v xml:space="preserve">        fcb   $1C</v>
       </c>
       <c r="C214">
         <f t="shared" si="23"/>
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="D214">
         <f t="shared" si="20"/>
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="21"/>
-        <v>1A</v>
+        <v>E0</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="22"/>
-        <v>27</v>
+        <v>1C</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $E0</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $26</v>
+        <v xml:space="preserve">        fcb   $1D</v>
       </c>
       <c r="C215">
         <f t="shared" si="23"/>
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="D215">
         <f t="shared" si="20"/>
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="21"/>
-        <v>1B</v>
+        <v>E0</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>1D</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $25</v>
+        <v xml:space="preserve">        fcb   $1F</v>
       </c>
       <c r="C216">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="D216">
         <f t="shared" si="20"/>
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="21"/>
-        <v>1B</v>
+        <v>E1</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>1F</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1C</v>
+        <v xml:space="preserve">        fcb   $E1</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $24</v>
+        <v xml:space="preserve">        fcb   $20</v>
       </c>
       <c r="C217">
         <f t="shared" si="23"/>
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="D217">
         <f t="shared" si="20"/>
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="21"/>
-        <v>1C</v>
+        <v>E1</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1C</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $21</v>
       </c>
       <c r="C218">
         <f t="shared" si="23"/>
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="D218">
         <f t="shared" si="20"/>
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="21"/>
-        <v>1C</v>
+        <v>E2</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="22"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $E2</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $23</v>
       </c>
       <c r="C219">
         <f t="shared" si="23"/>
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="D219">
         <f t="shared" si="20"/>
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="21"/>
-        <v>1D</v>
+        <v>E2</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $24</v>
       </c>
       <c r="C220">
         <f t="shared" si="23"/>
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="D220">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="21"/>
-        <v>1D</v>
+        <v>E3</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $E3</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $26</v>
       </c>
       <c r="C221">
         <f t="shared" si="23"/>
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="D221">
         <f t="shared" si="20"/>
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="21"/>
-        <v>1E</v>
+        <v>E3</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="22"/>
-        <v>1F</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1E</v>
+        <v xml:space="preserve">        fcb   $27</v>
       </c>
       <c r="C222">
         <f t="shared" si="23"/>
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="D222">
         <f t="shared" si="20"/>
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="21"/>
-        <v>1E</v>
+        <v>E4</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="22"/>
-        <v>1E</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $E4</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1D</v>
+        <v xml:space="preserve">        fcb   $28</v>
       </c>
       <c r="C223">
         <f t="shared" si="23"/>
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="D223">
         <f t="shared" si="20"/>
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="21"/>
-        <v>1F</v>
+        <v>E4</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="22"/>
-        <v>1D</v>
+        <v>28</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $1F</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1B</v>
+        <v xml:space="preserve">        fcb   $29</v>
       </c>
       <c r="C224">
         <f t="shared" si="23"/>
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="D224">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="21"/>
-        <v>1F</v>
+        <v>E5</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="22"/>
-        <v>1B</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $E5</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $1A</v>
+        <v xml:space="preserve">        fcb   $2B</v>
       </c>
       <c r="C225">
         <f t="shared" si="23"/>
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="D225">
         <f t="shared" si="20"/>
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>E5</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="22"/>
-        <v>1A</v>
+        <v>2B</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $19</v>
+        <v xml:space="preserve">        fcb   $2C</v>
       </c>
       <c r="C226">
         <f t="shared" si="23"/>
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="D226">
         <f t="shared" si="20"/>
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>E6</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>2C</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $20</v>
+        <v xml:space="preserve">        fcb   $E6</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $17</v>
+        <v xml:space="preserve">        fcb   $2D</v>
       </c>
       <c r="C227">
         <f t="shared" si="23"/>
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="D227">
         <f t="shared" si="20"/>
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>E6</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>2D</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $E7</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $16</v>
+        <v xml:space="preserve">        fcb   $2E</v>
       </c>
       <c r="C228">
         <f t="shared" si="23"/>
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D228">
         <f t="shared" si="20"/>
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>E7</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>2E</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $E8</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $15</v>
+        <v xml:space="preserve">        fcb   $2F</v>
       </c>
       <c r="C229">
         <f t="shared" si="23"/>
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="D229">
         <f t="shared" si="20"/>
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>E8</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>2F</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $E8</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $13</v>
+        <v xml:space="preserve">        fcb   $30</v>
       </c>
       <c r="C230">
         <f t="shared" si="23"/>
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="D230">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>E8</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $E9</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $12</v>
+        <v xml:space="preserve">        fcb   $31</v>
       </c>
       <c r="C231">
         <f t="shared" si="23"/>
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="D231">
         <f t="shared" si="20"/>
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>E9</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $11</v>
+        <v xml:space="preserve">        fcb   $33</v>
       </c>
       <c r="C232">
         <f t="shared" si="23"/>
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="D232">
         <f t="shared" si="20"/>
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>EA</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $EA</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0F</v>
+        <v xml:space="preserve">        fcb   $34</v>
       </c>
       <c r="C233">
         <f t="shared" si="23"/>
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="D233">
         <f t="shared" si="20"/>
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>EA</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="22"/>
-        <v>0F</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $EB</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0E</v>
+        <v xml:space="preserve">        fcb   $35</v>
       </c>
       <c r="C234">
         <f t="shared" si="23"/>
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="D234">
         <f t="shared" si="20"/>
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>EB</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="22"/>
-        <v>0E</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0C</v>
+        <v xml:space="preserve">        fcb   $35</v>
       </c>
       <c r="C235">
         <f t="shared" si="23"/>
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="D235">
         <f t="shared" si="20"/>
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>EC</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="22"/>
-        <v>0C</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $EC</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0B</v>
+        <v xml:space="preserve">        fcb   $36</v>
       </c>
       <c r="C236">
         <f t="shared" si="23"/>
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="D236">
         <f t="shared" si="20"/>
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>EC</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="22"/>
-        <v>0B</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $ED</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $0A</v>
+        <v xml:space="preserve">        fcb   $37</v>
       </c>
       <c r="C237">
         <f t="shared" si="23"/>
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="D237">
         <f t="shared" si="20"/>
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>ED</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="22"/>
-        <v>0A</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $EE</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $08</v>
+        <v xml:space="preserve">        fcb   $38</v>
       </c>
       <c r="C238">
         <f t="shared" si="23"/>
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="D238">
         <f t="shared" si="20"/>
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>EE</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="22"/>
-        <v>08</v>
+        <v>38</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $EF</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $07</v>
+        <v xml:space="preserve">        fcb   $39</v>
       </c>
       <c r="C239">
         <f t="shared" si="23"/>
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="D239">
         <f t="shared" si="20"/>
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>EF</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="22"/>
-        <v>07</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $05</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C240">
         <f t="shared" si="23"/>
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="D240">
         <f t="shared" si="20"/>
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F0</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="22"/>
-        <v>05</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F0</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $04</v>
+        <v xml:space="preserve">        fcb   $3A</v>
       </c>
       <c r="C241">
         <f t="shared" si="23"/>
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="D241">
         <f t="shared" si="20"/>
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F0</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="22"/>
-        <v>04</v>
+        <v>3A</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F1</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $02</v>
+        <v xml:space="preserve">        fcb   $3B</v>
       </c>
       <c r="C242">
         <f t="shared" si="23"/>
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="D242">
         <f t="shared" si="20"/>
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F1</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="22"/>
-        <v>02</v>
+        <v>3B</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F2</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $01</v>
+        <v xml:space="preserve">        fcb   $3C</v>
       </c>
       <c r="C243">
         <f t="shared" si="23"/>
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="D243">
         <f t="shared" si="20"/>
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F2</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="22"/>
-        <v>01</v>
+        <v>3C</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $24</v>
+        <v xml:space="preserve">        fcb   $F3</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $00</v>
+        <v xml:space="preserve">        fcb   $3C</v>
       </c>
       <c r="C244">
         <f t="shared" si="23"/>
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="D244">
         <f t="shared" si="20"/>
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>F3</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="22"/>
-        <v>00</v>
+        <v>3C</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $FF</v>
+        <v xml:space="preserve">        fcb   $3D</v>
       </c>
       <c r="C245">
         <f t="shared" si="23"/>
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D245">
         <f t="shared" si="20"/>
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F4</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="22"/>
-        <v>FF</v>
+        <v>3D</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F4</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $FE</v>
+        <v xml:space="preserve">        fcb   $3E</v>
       </c>
       <c r="C246">
         <f t="shared" si="23"/>
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="D246">
         <f t="shared" si="20"/>
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F4</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="22"/>
-        <v>FE</v>
+        <v>3E</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F5</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $FC</v>
+        <v xml:space="preserve">        fcb   $3E</v>
       </c>
       <c r="C247">
         <f t="shared" si="23"/>
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="D247">
         <f t="shared" si="20"/>
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F5</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="22"/>
-        <v>FC</v>
+        <v>3E</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F6</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $FB</v>
+        <v xml:space="preserve">        fcb   $3F</v>
       </c>
       <c r="C248">
         <f t="shared" si="23"/>
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="D248">
         <f t="shared" si="20"/>
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F6</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="22"/>
-        <v>FB</v>
+        <v>3F</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F7</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $F9</v>
+        <v xml:space="preserve">        fcb   $3F</v>
       </c>
       <c r="C249">
         <f t="shared" si="23"/>
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="D249">
         <f t="shared" si="20"/>
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F7</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="22"/>
-        <v>F9</v>
+        <v>3F</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F8</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $F8</v>
+        <v xml:space="preserve">        fcb   $40</v>
       </c>
       <c r="C250">
         <f t="shared" si="23"/>
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="D250">
         <f t="shared" si="20"/>
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F8</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="22"/>
-        <v>F8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $F6</v>
+        <v xml:space="preserve">        fcb   $40</v>
       </c>
       <c r="C251">
         <f t="shared" si="23"/>
-        <v>327</v>
+        <v>247</v>
       </c>
       <c r="D251">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F9</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="22"/>
-        <v>F6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $F9</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $F5</v>
+        <v xml:space="preserve">        fcb   $40</v>
       </c>
       <c r="C252">
         <f t="shared" si="23"/>
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="D252">
         <f t="shared" si="20"/>
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="E252" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>F9</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="22"/>
-        <v>F5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $23</v>
+        <v xml:space="preserve">        fcb   $FA</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $F4</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C253">
         <f t="shared" si="23"/>
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="D253">
         <f t="shared" si="20"/>
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="E253" t="str">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>FA</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="22"/>
-        <v>F4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $FB</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $F2</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C254">
         <f t="shared" si="23"/>
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="D254">
         <f t="shared" si="20"/>
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="E254" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>FB</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="22"/>
-        <v>F2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $FC</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $F1</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C255">
         <f t="shared" si="23"/>
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="D255">
         <f t="shared" si="20"/>
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="E255" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>FC</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="22"/>
-        <v>F1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $FD</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $EF</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C256">
         <f t="shared" si="23"/>
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="D256">
         <f t="shared" si="20"/>
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="E256" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>FD</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="22"/>
-        <v>EF</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $22</v>
+        <v xml:space="preserve">        fcb   $FE</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $EE</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C257">
         <f t="shared" si="23"/>
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="D257">
         <f t="shared" si="20"/>
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="E257" t="str">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>FE</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="22"/>
-        <v>EE</v>
+        <v>41</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $FF</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $ED</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C258">
         <f t="shared" si="23"/>
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="D258">
         <f t="shared" si="20"/>
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="E258" t="str">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>FF</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="22"/>
-        <v>ED</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">        fcb   $21</v>
+        <v xml:space="preserve">        fcb   $00</v>
       </c>
       <c r="B259" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        fcb   $EB</v>
+        <v xml:space="preserve">        fcb   $41</v>
       </c>
       <c r="C259">
         <f t="shared" si="23"/>
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="D259">
         <f t="shared" si="20"/>
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="E259" t="str">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>00</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="22"/>
-        <v>EB</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
